--- a/input/BYU Siphonaptera Synonyms.xlsx
+++ b/input/BYU Siphonaptera Synonyms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Dropbox\DGR Conversion Files\TPT Stuff\Siphonaptera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/ixodes-tpt/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB29FA7-FBCA-45AA-A522-79CEC9E2D67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7BB29FA7-FBCA-45AA-A522-79CEC9E2D67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B77D6094-B3B4-463F-9B94-66CE1C7A903A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{7D02E71C-77E1-404A-98BF-17EC0448B361}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6833" uniqueCount="2693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6833" uniqueCount="2695">
   <si>
     <t>scientific name</t>
   </si>
@@ -8116,6 +8116,12 @@
   </si>
   <si>
     <t>subfamily</t>
+  </si>
+  <si>
+    <t>BYUSYN</t>
+  </si>
+  <si>
+    <t>TPTdataset</t>
   </si>
 </sst>
 </file>
@@ -20286,9 +20292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A283B32-D5E1-44BD-968F-182027A7A124}">
   <dimension ref="A1:AK596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20309,7 +20313,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>836</v>
+        <v>2694</v>
       </c>
       <c r="B1" t="s">
         <v>800</v>
@@ -20422,7 +20426,10 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>937</v>
+        <v>2693</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
       </c>
       <c r="J2" t="s">
         <v>100</v>
@@ -20442,7 +20449,10 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>2693</v>
+      </c>
+      <c r="B3">
+        <v>144</v>
       </c>
       <c r="J3" t="s">
         <v>141</v>
@@ -20462,7 +20472,10 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>945</v>
+        <v>2693</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
       </c>
       <c r="J4" t="s">
         <v>108</v>
@@ -20482,7 +20495,10 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>949</v>
+        <v>2693</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
       </c>
       <c r="J5" t="s">
         <v>112</v>
@@ -20505,7 +20521,10 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>946</v>
+        <v>2693</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -20525,7 +20544,10 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>950</v>
+        <v>2693</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
       </c>
       <c r="J7" t="s">
         <v>113</v>
@@ -20545,7 +20567,10 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>947</v>
+        <v>2693</v>
+      </c>
+      <c r="B8">
+        <v>111</v>
       </c>
       <c r="J8" t="s">
         <v>110</v>
@@ -20568,7 +20593,10 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>948</v>
+        <v>2693</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
       </c>
       <c r="J9" t="s">
         <v>111</v>
@@ -20591,7 +20619,10 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>951</v>
+        <v>2693</v>
+      </c>
+      <c r="B10">
+        <v>115</v>
       </c>
       <c r="J10" t="s">
         <v>114</v>
@@ -20611,7 +20642,10 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>952</v>
+        <v>2693</v>
+      </c>
+      <c r="B11">
+        <v>116</v>
       </c>
       <c r="J11" t="s">
         <v>115</v>
@@ -20631,7 +20665,10 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>953</v>
+        <v>2693</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -20654,7 +20691,10 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>885</v>
+        <v>2693</v>
+      </c>
+      <c r="B13">
+        <v>49</v>
       </c>
       <c r="J13" t="s">
         <v>1632</v>
@@ -20683,7 +20723,10 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>886</v>
+        <v>2693</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
       </c>
       <c r="J14" t="s">
         <v>1638</v>
@@ -20712,7 +20755,10 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>888</v>
+        <v>2693</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>1641</v>
@@ -20735,7 +20781,10 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>889</v>
+        <v>2693</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
       </c>
       <c r="J16" t="s">
         <v>1641</v>
@@ -20758,7 +20807,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>910</v>
+        <v>2693</v>
+      </c>
+      <c r="B17">
+        <v>74</v>
       </c>
       <c r="J17" t="s">
         <v>1647</v>
@@ -20784,7 +20836,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>956</v>
+        <v>2693</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>1651</v>
@@ -20810,7 +20865,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>974</v>
+        <v>2693</v>
+      </c>
+      <c r="B19">
+        <v>138</v>
       </c>
       <c r="J19" t="s">
         <v>1653</v>
@@ -20830,7 +20888,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>975</v>
+        <v>2693</v>
+      </c>
+      <c r="B20">
+        <v>139</v>
       </c>
       <c r="J20" t="s">
         <v>1653</v>
@@ -20850,7 +20911,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>976</v>
+        <v>2693</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
       </c>
       <c r="J21" t="s">
         <v>1653</v>
@@ -20870,7 +20934,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>985</v>
+        <v>2693</v>
+      </c>
+      <c r="B22">
+        <v>149</v>
       </c>
       <c r="J22" t="s">
         <v>1657</v>
@@ -20890,7 +20957,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1064</v>
+        <v>2693</v>
+      </c>
+      <c r="B23">
+        <v>228</v>
       </c>
       <c r="J23" t="s">
         <v>1661</v>
@@ -20916,7 +20986,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1039</v>
+        <v>2693</v>
+      </c>
+      <c r="B24">
+        <v>203</v>
       </c>
       <c r="J24" t="s">
         <v>1666</v>
@@ -20942,7 +21015,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>838</v>
+        <v>2693</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>3</v>
@@ -20965,7 +21041,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>839</v>
+        <v>2693</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>3</v>
@@ -20988,7 +21067,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1090</v>
+        <v>2693</v>
+      </c>
+      <c r="B27">
+        <v>254</v>
       </c>
       <c r="J27" t="s">
         <v>1674</v>
@@ -21011,7 +21093,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>837</v>
+        <v>2693</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>2</v>
@@ -21034,7 +21119,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>840</v>
+        <v>2693</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>1683</v>
@@ -21057,7 +21145,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>841</v>
+        <v>2693</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>5</v>
@@ -21080,7 +21171,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>852</v>
+        <v>2693</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -21103,7 +21197,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>842</v>
+        <v>2693</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
@@ -21126,7 +21223,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>844</v>
+        <v>2693</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -21146,7 +21246,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>845</v>
+        <v>2693</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
@@ -21166,7 +21269,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>843</v>
+        <v>2693</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
       </c>
       <c r="J35" t="s">
         <v>1702</v>
@@ -21189,7 +21295,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>848</v>
+        <v>2693</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -21212,7 +21321,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>846</v>
+        <v>2693</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
       </c>
       <c r="J37" t="s">
         <v>10</v>
@@ -21235,7 +21347,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>847</v>
+        <v>2693</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -21255,7 +21370,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>849</v>
+        <v>2693</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -21275,7 +21393,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>850</v>
+        <v>2693</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
       </c>
       <c r="J40" t="s">
         <v>1712</v>
@@ -21298,7 +21419,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>851</v>
+        <v>2693</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -21315,7 +21439,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>853</v>
+        <v>2693</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
@@ -21335,7 +21462,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>856</v>
+        <v>2693</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
@@ -21355,7 +21485,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>855</v>
+        <v>2693</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -21375,7 +21508,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>854</v>
+        <v>2693</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
       </c>
       <c r="J45" t="s">
         <v>1724</v>
@@ -21398,7 +21534,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>857</v>
+        <v>2693</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
@@ -21418,7 +21557,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>859</v>
+        <v>2693</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -21438,7 +21580,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>860</v>
+        <v>2693</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
       </c>
       <c r="J48" t="s">
         <v>24</v>
@@ -21458,7 +21603,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>858</v>
+        <v>2693</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
       </c>
       <c r="J49" t="s">
         <v>1734</v>
@@ -21481,7 +21629,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>861</v>
+        <v>2693</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
       </c>
       <c r="J50" t="s">
         <v>25</v>
@@ -21501,7 +21652,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>866</v>
+        <v>2693</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
       </c>
       <c r="J51" t="s">
         <v>30</v>
@@ -21521,7 +21675,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>863</v>
+        <v>2693</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
       </c>
       <c r="J52" t="s">
         <v>27</v>
@@ -21541,7 +21698,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>864</v>
+        <v>2693</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -21561,7 +21721,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>865</v>
+        <v>2693</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
       </c>
       <c r="J54" t="s">
         <v>29</v>
@@ -21581,7 +21744,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>867</v>
+        <v>2693</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -21601,7 +21767,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>868</v>
+        <v>2693</v>
+      </c>
+      <c r="B56">
+        <v>32</v>
       </c>
       <c r="J56" t="s">
         <v>32</v>
@@ -21618,7 +21787,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>960</v>
+        <v>2693</v>
+      </c>
+      <c r="B57">
+        <v>124</v>
       </c>
       <c r="J57" t="s">
         <v>123</v>
@@ -21641,7 +21813,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>870</v>
+        <v>2693</v>
+      </c>
+      <c r="B58">
+        <v>34</v>
       </c>
       <c r="J58" t="s">
         <v>34</v>
@@ -21661,7 +21836,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>871</v>
+        <v>2693</v>
+      </c>
+      <c r="B59">
+        <v>35</v>
       </c>
       <c r="J59" t="s">
         <v>34</v>
@@ -21681,7 +21859,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>869</v>
+        <v>2693</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
       </c>
       <c r="J60" t="s">
         <v>33</v>
@@ -21701,7 +21882,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>873</v>
+        <v>2693</v>
+      </c>
+      <c r="B61">
+        <v>37</v>
       </c>
       <c r="J61" t="s">
         <v>36</v>
@@ -21721,7 +21905,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>874</v>
+        <v>2693</v>
+      </c>
+      <c r="B62">
+        <v>38</v>
       </c>
       <c r="J62" t="s">
         <v>37</v>
@@ -21741,7 +21928,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>872</v>
+        <v>2693</v>
+      </c>
+      <c r="B63">
+        <v>36</v>
       </c>
       <c r="J63" t="s">
         <v>35</v>
@@ -21761,7 +21951,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>877</v>
+        <v>2693</v>
+      </c>
+      <c r="B64">
+        <v>41</v>
       </c>
       <c r="J64" t="s">
         <v>40</v>
@@ -21781,7 +21974,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>876</v>
+        <v>2693</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
       </c>
       <c r="J65" t="s">
         <v>39</v>
@@ -21801,7 +21997,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>875</v>
+        <v>2693</v>
+      </c>
+      <c r="B66">
+        <v>39</v>
       </c>
       <c r="J66" t="s">
         <v>38</v>
@@ -21818,7 +22017,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>878</v>
+        <v>2693</v>
+      </c>
+      <c r="B67">
+        <v>42</v>
       </c>
       <c r="J67" t="s">
         <v>41</v>
@@ -21838,7 +22040,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>879</v>
+        <v>2693</v>
+      </c>
+      <c r="B68">
+        <v>43</v>
       </c>
       <c r="J68" t="s">
         <v>1764</v>
@@ -21858,7 +22063,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>880</v>
+        <v>2693</v>
+      </c>
+      <c r="B69">
+        <v>44</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
@@ -21878,7 +22086,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>881</v>
+        <v>2693</v>
+      </c>
+      <c r="B70">
+        <v>45</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
@@ -21898,7 +22109,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>882</v>
+        <v>2693</v>
+      </c>
+      <c r="B71">
+        <v>46</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
@@ -21921,7 +22135,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>883</v>
+        <v>2693</v>
+      </c>
+      <c r="B72">
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>46</v>
@@ -21944,7 +22161,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>884</v>
+        <v>2693</v>
+      </c>
+      <c r="B73">
+        <v>48</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
@@ -21967,7 +22187,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>887</v>
+        <v>2693</v>
+      </c>
+      <c r="B74">
+        <v>51</v>
       </c>
       <c r="J74" t="s">
         <v>50</v>
@@ -21987,7 +22210,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>890</v>
+        <v>2693</v>
+      </c>
+      <c r="B75">
+        <v>54</v>
       </c>
       <c r="J75" t="s">
         <v>53</v>
@@ -22007,7 +22233,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>891</v>
+        <v>2693</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
       </c>
       <c r="J76" t="s">
         <v>54</v>
@@ -22027,7 +22256,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>893</v>
+        <v>2693</v>
+      </c>
+      <c r="B77">
+        <v>57</v>
       </c>
       <c r="J77" t="s">
         <v>56</v>
@@ -22047,7 +22279,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>892</v>
+        <v>2693</v>
+      </c>
+      <c r="B78">
+        <v>56</v>
       </c>
       <c r="J78" t="s">
         <v>55</v>
@@ -22064,7 +22299,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>894</v>
+        <v>2693</v>
+      </c>
+      <c r="B79">
+        <v>58</v>
       </c>
       <c r="J79" t="s">
         <v>57</v>
@@ -22084,7 +22322,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>895</v>
+        <v>2693</v>
+      </c>
+      <c r="B80">
+        <v>59</v>
       </c>
       <c r="J80" t="s">
         <v>58</v>
@@ -22104,7 +22345,10 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>896</v>
+        <v>2693</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
       </c>
       <c r="J81" t="s">
         <v>59</v>
@@ -22124,7 +22368,10 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>897</v>
+        <v>2693</v>
+      </c>
+      <c r="B82">
+        <v>61</v>
       </c>
       <c r="J82" t="s">
         <v>60</v>
@@ -22144,7 +22391,10 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>898</v>
+        <v>2693</v>
+      </c>
+      <c r="B83">
+        <v>62</v>
       </c>
       <c r="J83" t="s">
         <v>1799</v>
@@ -22167,7 +22417,10 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>899</v>
+        <v>2693</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
       </c>
       <c r="J84" t="s">
         <v>62</v>
@@ -22187,7 +22440,10 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>900</v>
+        <v>2693</v>
+      </c>
+      <c r="B85">
+        <v>64</v>
       </c>
       <c r="J85" t="s">
         <v>63</v>
@@ -22207,7 +22463,10 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>2693</v>
+      </c>
+      <c r="B86">
+        <v>66</v>
       </c>
       <c r="J86" t="s">
         <v>65</v>
@@ -22227,7 +22486,10 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>903</v>
+        <v>2693</v>
+      </c>
+      <c r="B87">
+        <v>67</v>
       </c>
       <c r="J87" t="s">
         <v>66</v>
@@ -22247,7 +22509,10 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>901</v>
+        <v>2693</v>
+      </c>
+      <c r="B88">
+        <v>65</v>
       </c>
       <c r="J88" t="s">
         <v>64</v>
@@ -22267,7 +22532,10 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>904</v>
+        <v>2693</v>
+      </c>
+      <c r="B89">
+        <v>68</v>
       </c>
       <c r="J89" t="s">
         <v>67</v>
@@ -22287,7 +22555,10 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>905</v>
+        <v>2693</v>
+      </c>
+      <c r="B90">
+        <v>69</v>
       </c>
       <c r="J90" t="s">
         <v>68</v>
@@ -22307,7 +22578,10 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>906</v>
+        <v>2693</v>
+      </c>
+      <c r="B91">
+        <v>70</v>
       </c>
       <c r="J91" t="s">
         <v>69</v>
@@ -22327,7 +22601,10 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>907</v>
+        <v>2693</v>
+      </c>
+      <c r="B92">
+        <v>71</v>
       </c>
       <c r="J92" t="s">
         <v>70</v>
@@ -22347,7 +22624,10 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>909</v>
+        <v>2693</v>
+      </c>
+      <c r="B93">
+        <v>73</v>
       </c>
       <c r="J93" t="s">
         <v>72</v>
@@ -22367,7 +22647,10 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>908</v>
+        <v>2693</v>
+      </c>
+      <c r="B94">
+        <v>72</v>
       </c>
       <c r="J94" t="s">
         <v>71</v>
@@ -22387,7 +22670,10 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>862</v>
+        <v>2693</v>
+      </c>
+      <c r="B95">
+        <v>26</v>
       </c>
       <c r="J95" t="s">
         <v>26</v>
@@ -22410,7 +22696,10 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>911</v>
+        <v>2693</v>
+      </c>
+      <c r="B96">
+        <v>75</v>
       </c>
       <c r="J96" t="s">
         <v>74</v>
@@ -22427,7 +22716,10 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>913</v>
+        <v>2693</v>
+      </c>
+      <c r="B97">
+        <v>77</v>
       </c>
       <c r="J97" t="s">
         <v>76</v>
@@ -22447,7 +22739,10 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>912</v>
+        <v>2693</v>
+      </c>
+      <c r="B98">
+        <v>76</v>
       </c>
       <c r="J98" t="s">
         <v>75</v>
@@ -22470,7 +22765,10 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>915</v>
+        <v>2693</v>
+      </c>
+      <c r="B99">
+        <v>79</v>
       </c>
       <c r="J99" t="s">
         <v>78</v>
@@ -22490,7 +22788,10 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>914</v>
+        <v>2693</v>
+      </c>
+      <c r="B100">
+        <v>78</v>
       </c>
       <c r="J100" t="s">
         <v>77</v>
@@ -22510,7 +22811,10 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>917</v>
+        <v>2693</v>
+      </c>
+      <c r="B101">
+        <v>81</v>
       </c>
       <c r="J101" t="s">
         <v>80</v>
@@ -22530,7 +22834,10 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>932</v>
+        <v>2693</v>
+      </c>
+      <c r="B102">
+        <v>96</v>
       </c>
       <c r="J102" t="s">
         <v>95</v>
@@ -22550,7 +22857,10 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>920</v>
+        <v>2693</v>
+      </c>
+      <c r="B103">
+        <v>84</v>
       </c>
       <c r="J103" t="s">
         <v>83</v>
@@ -22570,7 +22880,10 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>922</v>
+        <v>2693</v>
+      </c>
+      <c r="B104">
+        <v>86</v>
       </c>
       <c r="J104" t="s">
         <v>85</v>
@@ -22590,7 +22903,10 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>921</v>
+        <v>2693</v>
+      </c>
+      <c r="B105">
+        <v>85</v>
       </c>
       <c r="J105" t="s">
         <v>84</v>
@@ -22610,7 +22926,10 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>924</v>
+        <v>2693</v>
+      </c>
+      <c r="B106">
+        <v>88</v>
       </c>
       <c r="J106" t="s">
         <v>87</v>
@@ -22630,7 +22949,10 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>918</v>
+        <v>2693</v>
+      </c>
+      <c r="B107">
+        <v>82</v>
       </c>
       <c r="J107" t="s">
         <v>81</v>
@@ -22650,7 +22972,10 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>926</v>
+        <v>2693</v>
+      </c>
+      <c r="B108">
+        <v>90</v>
       </c>
       <c r="J108" t="s">
         <v>89</v>
@@ -22670,7 +22995,10 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>928</v>
+        <v>2693</v>
+      </c>
+      <c r="B109">
+        <v>92</v>
       </c>
       <c r="J109" t="s">
         <v>91</v>
@@ -22690,7 +23018,10 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>919</v>
+        <v>2693</v>
+      </c>
+      <c r="B110">
+        <v>83</v>
       </c>
       <c r="J110" t="s">
         <v>82</v>
@@ -22710,7 +23041,10 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>923</v>
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>87</v>
       </c>
       <c r="J111" t="s">
         <v>86</v>
@@ -22730,7 +23064,10 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>929</v>
+        <v>2693</v>
+      </c>
+      <c r="B112">
+        <v>93</v>
       </c>
       <c r="J112" t="s">
         <v>92</v>
@@ -22750,7 +23087,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>916</v>
+        <v>2693</v>
+      </c>
+      <c r="B113">
+        <v>80</v>
       </c>
       <c r="J113" t="s">
         <v>79</v>
@@ -22770,7 +23110,10 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>925</v>
+        <v>2693</v>
+      </c>
+      <c r="B114">
+        <v>89</v>
       </c>
       <c r="J114" t="s">
         <v>88</v>
@@ -22790,7 +23133,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>930</v>
+        <v>2693</v>
+      </c>
+      <c r="B115">
+        <v>94</v>
       </c>
       <c r="J115" t="s">
         <v>93</v>
@@ -22810,7 +23156,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>927</v>
+        <v>2693</v>
+      </c>
+      <c r="B116">
+        <v>91</v>
       </c>
       <c r="J116" t="s">
         <v>90</v>
@@ -22830,7 +23179,10 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>931</v>
+        <v>2693</v>
+      </c>
+      <c r="B117">
+        <v>95</v>
       </c>
       <c r="J117" t="s">
         <v>94</v>
@@ -22850,7 +23202,10 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>933</v>
+        <v>2693</v>
+      </c>
+      <c r="B118">
+        <v>97</v>
       </c>
       <c r="J118" t="s">
         <v>96</v>
@@ -22870,7 +23225,10 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>934</v>
+        <v>2693</v>
+      </c>
+      <c r="B119">
+        <v>98</v>
       </c>
       <c r="J119" t="s">
         <v>97</v>
@@ -22890,7 +23248,10 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>935</v>
+        <v>2693</v>
+      </c>
+      <c r="B120">
+        <v>99</v>
       </c>
       <c r="J120" t="s">
         <v>1855</v>
@@ -22916,7 +23277,10 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>943</v>
+        <v>2693</v>
+      </c>
+      <c r="B121">
+        <v>107</v>
       </c>
       <c r="J121" t="s">
         <v>106</v>
@@ -22936,7 +23300,10 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>944</v>
+        <v>2693</v>
+      </c>
+      <c r="B122">
+        <v>108</v>
       </c>
       <c r="J122" t="s">
         <v>107</v>
@@ -22959,7 +23326,10 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>938</v>
+        <v>2693</v>
+      </c>
+      <c r="B123">
+        <v>102</v>
       </c>
       <c r="J123" t="s">
         <v>101</v>
@@ -22979,7 +23349,10 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>940</v>
+        <v>2693</v>
+      </c>
+      <c r="B124">
+        <v>104</v>
       </c>
       <c r="J124" t="s">
         <v>103</v>
@@ -22999,7 +23372,10 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>941</v>
+        <v>2693</v>
+      </c>
+      <c r="B125">
+        <v>105</v>
       </c>
       <c r="J125" t="s">
         <v>104</v>
@@ -23019,7 +23395,10 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>939</v>
+        <v>2693</v>
+      </c>
+      <c r="B126">
+        <v>103</v>
       </c>
       <c r="J126" t="s">
         <v>102</v>
@@ -23039,7 +23418,10 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>942</v>
+        <v>2693</v>
+      </c>
+      <c r="B127">
+        <v>106</v>
       </c>
       <c r="J127" t="s">
         <v>105</v>
@@ -23059,7 +23441,10 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>955</v>
+        <v>2693</v>
+      </c>
+      <c r="B128">
+        <v>119</v>
       </c>
       <c r="J128" t="s">
         <v>118</v>
@@ -23082,7 +23467,10 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>958</v>
+        <v>2693</v>
+      </c>
+      <c r="B129">
+        <v>122</v>
       </c>
       <c r="J129" t="s">
         <v>121</v>
@@ -23102,7 +23490,10 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>957</v>
+        <v>2693</v>
+      </c>
+      <c r="B130">
+        <v>121</v>
       </c>
       <c r="J130" t="s">
         <v>120</v>
@@ -23122,7 +23513,10 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>959</v>
+        <v>2693</v>
+      </c>
+      <c r="B131">
+        <v>123</v>
       </c>
       <c r="J131" t="s">
         <v>122</v>
@@ -23142,7 +23536,10 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>962</v>
+        <v>2693</v>
+      </c>
+      <c r="B132">
+        <v>126</v>
       </c>
       <c r="J132" t="s">
         <v>125</v>
@@ -23162,7 +23559,10 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>961</v>
+        <v>2693</v>
+      </c>
+      <c r="B133">
+        <v>125</v>
       </c>
       <c r="J133" t="s">
         <v>124</v>
@@ -23182,7 +23582,10 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>963</v>
+        <v>2693</v>
+      </c>
+      <c r="B134">
+        <v>127</v>
       </c>
       <c r="J134" t="s">
         <v>126</v>
@@ -23202,7 +23605,10 @@
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>964</v>
+        <v>2693</v>
+      </c>
+      <c r="B135">
+        <v>128</v>
       </c>
       <c r="J135" t="s">
         <v>127</v>
@@ -23222,7 +23628,10 @@
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>965</v>
+        <v>2693</v>
+      </c>
+      <c r="B136">
+        <v>129</v>
       </c>
       <c r="J136" t="s">
         <v>128</v>
@@ -23239,7 +23648,10 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>966</v>
+        <v>2693</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
       </c>
       <c r="J137" t="s">
         <v>129</v>
@@ -23259,7 +23671,10 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>967</v>
+        <v>2693</v>
+      </c>
+      <c r="B138">
+        <v>131</v>
       </c>
       <c r="J138" t="s">
         <v>130</v>
@@ -23276,7 +23691,10 @@
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>977</v>
+        <v>2693</v>
+      </c>
+      <c r="B139">
+        <v>141</v>
       </c>
       <c r="J139" t="s">
         <v>1887</v>
@@ -23299,7 +23717,10 @@
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>968</v>
+        <v>2693</v>
+      </c>
+      <c r="B140">
+        <v>132</v>
       </c>
       <c r="J140" t="s">
         <v>131</v>
@@ -23319,7 +23740,10 @@
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>971</v>
+        <v>2693</v>
+      </c>
+      <c r="B141">
+        <v>135</v>
       </c>
       <c r="J141" t="s">
         <v>134</v>
@@ -23339,7 +23763,10 @@
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>969</v>
+        <v>2693</v>
+      </c>
+      <c r="B142">
+        <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>132</v>
@@ -23356,7 +23783,10 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>970</v>
+        <v>2693</v>
+      </c>
+      <c r="B143">
+        <v>134</v>
       </c>
       <c r="J143" t="s">
         <v>133</v>
@@ -23373,7 +23803,10 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>972</v>
+        <v>2693</v>
+      </c>
+      <c r="B144">
+        <v>136</v>
       </c>
       <c r="J144" t="s">
         <v>135</v>
@@ -23393,7 +23826,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>973</v>
+        <v>2693</v>
+      </c>
+      <c r="B145">
+        <v>137</v>
       </c>
       <c r="J145" t="s">
         <v>136</v>
@@ -23410,7 +23846,10 @@
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>978</v>
+        <v>2693</v>
+      </c>
+      <c r="B146">
+        <v>142</v>
       </c>
       <c r="J146" t="s">
         <v>139</v>
@@ -23427,7 +23866,10 @@
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>979</v>
+        <v>2693</v>
+      </c>
+      <c r="B147">
+        <v>143</v>
       </c>
       <c r="J147" t="s">
         <v>140</v>
@@ -23447,7 +23889,10 @@
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>981</v>
+        <v>2693</v>
+      </c>
+      <c r="B148">
+        <v>145</v>
       </c>
       <c r="J148" t="s">
         <v>142</v>
@@ -23467,7 +23912,10 @@
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>982</v>
+        <v>2693</v>
+      </c>
+      <c r="B149">
+        <v>146</v>
       </c>
       <c r="J149" t="s">
         <v>143</v>
@@ -23487,7 +23935,10 @@
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>983</v>
+        <v>2693</v>
+      </c>
+      <c r="B150">
+        <v>147</v>
       </c>
       <c r="J150" t="s">
         <v>144</v>
@@ -23510,7 +23961,10 @@
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>984</v>
+        <v>2693</v>
+      </c>
+      <c r="B151">
+        <v>148</v>
       </c>
       <c r="J151" t="s">
         <v>145</v>
@@ -23533,7 +23987,10 @@
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>986</v>
+        <v>2693</v>
+      </c>
+      <c r="B152">
+        <v>150</v>
       </c>
       <c r="J152" t="s">
         <v>147</v>
@@ -23553,7 +24010,10 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>987</v>
+        <v>2693</v>
+      </c>
+      <c r="B153">
+        <v>151</v>
       </c>
       <c r="J153" t="s">
         <v>1913</v>
@@ -23576,7 +24036,10 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>988</v>
+        <v>2693</v>
+      </c>
+      <c r="B154">
+        <v>152</v>
       </c>
       <c r="J154" t="s">
         <v>1915</v>
@@ -23599,7 +24062,10 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>989</v>
+        <v>2693</v>
+      </c>
+      <c r="B155">
+        <v>153</v>
       </c>
       <c r="J155" t="s">
         <v>150</v>
@@ -23619,7 +24085,10 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>990</v>
+        <v>2693</v>
+      </c>
+      <c r="B156">
+        <v>154</v>
       </c>
       <c r="J156" t="s">
         <v>151</v>
@@ -23636,7 +24105,10 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>992</v>
+        <v>2693</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
       </c>
       <c r="J157" t="s">
         <v>153</v>
@@ -23656,7 +24128,10 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>994</v>
+        <v>2693</v>
+      </c>
+      <c r="B158">
+        <v>158</v>
       </c>
       <c r="J158" t="s">
         <v>155</v>
@@ -23679,7 +24154,10 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>993</v>
+        <v>2693</v>
+      </c>
+      <c r="B159">
+        <v>157</v>
       </c>
       <c r="J159" t="s">
         <v>154</v>
@@ -23699,7 +24177,10 @@
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>991</v>
+        <v>2693</v>
+      </c>
+      <c r="B160">
+        <v>155</v>
       </c>
       <c r="J160" t="s">
         <v>152</v>
@@ -23719,7 +24200,10 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>995</v>
+        <v>2693</v>
+      </c>
+      <c r="B161">
+        <v>159</v>
       </c>
       <c r="J161" t="s">
         <v>156</v>
@@ -23739,7 +24223,10 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>996</v>
+        <v>2693</v>
+      </c>
+      <c r="B162">
+        <v>160</v>
       </c>
       <c r="J162" t="s">
         <v>157</v>
@@ -23756,7 +24243,10 @@
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>1002</v>
+        <v>2693</v>
+      </c>
+      <c r="B163">
+        <v>166</v>
       </c>
       <c r="J163" t="s">
         <v>163</v>
@@ -23776,7 +24266,10 @@
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>997</v>
+        <v>2693</v>
+      </c>
+      <c r="B164">
+        <v>161</v>
       </c>
       <c r="J164" t="s">
         <v>158</v>
@@ -23796,7 +24289,10 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>998</v>
+        <v>2693</v>
+      </c>
+      <c r="B165">
+        <v>162</v>
       </c>
       <c r="J165" t="s">
         <v>159</v>
@@ -23819,7 +24315,10 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>999</v>
+        <v>2693</v>
+      </c>
+      <c r="B166">
+        <v>163</v>
       </c>
       <c r="J166" t="s">
         <v>160</v>
@@ -23839,7 +24338,10 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1000</v>
+        <v>2693</v>
+      </c>
+      <c r="B167">
+        <v>164</v>
       </c>
       <c r="J167" t="s">
         <v>161</v>
@@ -23859,7 +24361,10 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>1001</v>
+        <v>2693</v>
+      </c>
+      <c r="B168">
+        <v>165</v>
       </c>
       <c r="J168" t="s">
         <v>162</v>
@@ -23879,7 +24384,10 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>1003</v>
+        <v>2693</v>
+      </c>
+      <c r="B169">
+        <v>167</v>
       </c>
       <c r="J169" t="s">
         <v>1949</v>
@@ -23905,7 +24413,10 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>1004</v>
+        <v>2693</v>
+      </c>
+      <c r="B170">
+        <v>168</v>
       </c>
       <c r="J170" t="s">
         <v>165</v>
@@ -23925,7 +24436,10 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>1009</v>
+        <v>2693</v>
+      </c>
+      <c r="B171">
+        <v>173</v>
       </c>
       <c r="J171" t="s">
         <v>170</v>
@@ -23945,7 +24459,10 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1006</v>
+        <v>2693</v>
+      </c>
+      <c r="B172">
+        <v>170</v>
       </c>
       <c r="J172" t="s">
         <v>167</v>
@@ -23965,7 +24482,10 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1010</v>
+        <v>2693</v>
+      </c>
+      <c r="B173">
+        <v>174</v>
       </c>
       <c r="J173" t="s">
         <v>171</v>
@@ -23985,7 +24505,10 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1005</v>
+        <v>2693</v>
+      </c>
+      <c r="B174">
+        <v>169</v>
       </c>
       <c r="J174" t="s">
         <v>166</v>
@@ -24005,7 +24528,10 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1007</v>
+        <v>2693</v>
+      </c>
+      <c r="B175">
+        <v>171</v>
       </c>
       <c r="J175" t="s">
         <v>168</v>
@@ -24025,7 +24551,10 @@
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>1011</v>
+        <v>2693</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
       </c>
       <c r="J176" t="s">
         <v>172</v>
@@ -24045,7 +24574,10 @@
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1008</v>
+        <v>2693</v>
+      </c>
+      <c r="B177">
+        <v>172</v>
       </c>
       <c r="J177" t="s">
         <v>169</v>
@@ -24062,7 +24594,10 @@
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1012</v>
+        <v>2693</v>
+      </c>
+      <c r="B178">
+        <v>176</v>
       </c>
       <c r="J178" t="s">
         <v>173</v>
@@ -24079,7 +24614,10 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1013</v>
+        <v>2693</v>
+      </c>
+      <c r="B179">
+        <v>177</v>
       </c>
       <c r="J179" t="s">
         <v>174</v>
@@ -24102,7 +24640,10 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1015</v>
+        <v>2693</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
       </c>
       <c r="J180" t="s">
         <v>176</v>
@@ -24122,7 +24663,10 @@
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1014</v>
+        <v>2693</v>
+      </c>
+      <c r="B181">
+        <v>178</v>
       </c>
       <c r="J181" t="s">
         <v>175</v>
@@ -24139,7 +24683,10 @@
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1017</v>
+        <v>2693</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
       </c>
       <c r="J182" t="s">
         <v>178</v>
@@ -24162,7 +24709,10 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1016</v>
+        <v>2693</v>
+      </c>
+      <c r="B183">
+        <v>180</v>
       </c>
       <c r="J183" t="s">
         <v>177</v>
@@ -24185,7 +24735,10 @@
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1019</v>
+        <v>2693</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
       </c>
       <c r="J184" t="s">
         <v>180</v>
@@ -24208,7 +24761,10 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1021</v>
+        <v>2693</v>
+      </c>
+      <c r="B185">
+        <v>185</v>
       </c>
       <c r="J185" t="s">
         <v>182</v>
@@ -24231,7 +24787,10 @@
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1020</v>
+        <v>2693</v>
+      </c>
+      <c r="B186">
+        <v>184</v>
       </c>
       <c r="J186" t="s">
         <v>181</v>
@@ -24254,7 +24813,10 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1018</v>
+        <v>2693</v>
+      </c>
+      <c r="B187">
+        <v>182</v>
       </c>
       <c r="J187" t="s">
         <v>179</v>
@@ -24277,7 +24839,10 @@
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1022</v>
+        <v>2693</v>
+      </c>
+      <c r="B188">
+        <v>186</v>
       </c>
       <c r="J188" t="s">
         <v>183</v>
@@ -24300,7 +24865,10 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1023</v>
+        <v>2693</v>
+      </c>
+      <c r="B189">
+        <v>187</v>
       </c>
       <c r="J189" t="s">
         <v>184</v>
@@ -24323,7 +24891,10 @@
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1026</v>
+        <v>2693</v>
+      </c>
+      <c r="B190">
+        <v>190</v>
       </c>
       <c r="J190" t="s">
         <v>187</v>
@@ -24346,7 +24917,10 @@
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1025</v>
+        <v>2693</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
       </c>
       <c r="J191" t="s">
         <v>186</v>
@@ -24366,7 +24940,10 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>1024</v>
+        <v>2693</v>
+      </c>
+      <c r="B192">
+        <v>188</v>
       </c>
       <c r="J192" t="s">
         <v>185</v>
@@ -24386,7 +24963,10 @@
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1027</v>
+        <v>2693</v>
+      </c>
+      <c r="B193">
+        <v>191</v>
       </c>
       <c r="J193" t="s">
         <v>188</v>
@@ -24409,7 +24989,10 @@
     </row>
     <row r="194" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1028</v>
+        <v>2693</v>
+      </c>
+      <c r="B194">
+        <v>192</v>
       </c>
       <c r="J194" t="s">
         <v>189</v>
@@ -24432,7 +25015,10 @@
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1029</v>
+        <v>2693</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
       </c>
       <c r="J195" t="s">
         <v>190</v>
@@ -24452,7 +25038,10 @@
     </row>
     <row r="196" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1030</v>
+        <v>2693</v>
+      </c>
+      <c r="B196">
+        <v>194</v>
       </c>
       <c r="J196" t="s">
         <v>191</v>
@@ -24472,7 +25061,10 @@
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1031</v>
+        <v>2693</v>
+      </c>
+      <c r="B197">
+        <v>195</v>
       </c>
       <c r="J197" t="s">
         <v>192</v>
@@ -24492,7 +25084,10 @@
     </row>
     <row r="198" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1034</v>
+        <v>2693</v>
+      </c>
+      <c r="B198">
+        <v>198</v>
       </c>
       <c r="J198" t="s">
         <v>195</v>
@@ -24512,7 +25107,10 @@
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1032</v>
+        <v>2693</v>
+      </c>
+      <c r="B199">
+        <v>196</v>
       </c>
       <c r="J199" t="s">
         <v>193</v>
@@ -24532,7 +25130,10 @@
     </row>
     <row r="200" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1033</v>
+        <v>2693</v>
+      </c>
+      <c r="B200">
+        <v>197</v>
       </c>
       <c r="J200" t="s">
         <v>194</v>
@@ -24552,7 +25153,10 @@
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1035</v>
+        <v>2693</v>
+      </c>
+      <c r="B201">
+        <v>199</v>
       </c>
       <c r="J201" t="s">
         <v>196</v>
@@ -24569,7 +25173,10 @@
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1036</v>
+        <v>2693</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
       </c>
       <c r="J202" t="s">
         <v>2006</v>
@@ -24589,7 +25196,10 @@
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1037</v>
+        <v>2693</v>
+      </c>
+      <c r="B203">
+        <v>201</v>
       </c>
       <c r="J203" t="s">
         <v>2006</v>
@@ -24609,7 +25219,10 @@
     </row>
     <row r="204" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1038</v>
+        <v>2693</v>
+      </c>
+      <c r="B204">
+        <v>202</v>
       </c>
       <c r="J204" t="s">
         <v>199</v>
@@ -24629,7 +25242,10 @@
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1054</v>
+        <v>2693</v>
+      </c>
+      <c r="B205">
+        <v>218</v>
       </c>
       <c r="J205" t="s">
         <v>215</v>
@@ -24652,7 +25268,10 @@
     </row>
     <row r="206" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1056</v>
+        <v>2693</v>
+      </c>
+      <c r="B206">
+        <v>220</v>
       </c>
       <c r="J206" t="s">
         <v>217</v>
@@ -24675,7 +25294,10 @@
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1055</v>
+        <v>2693</v>
+      </c>
+      <c r="B207">
+        <v>219</v>
       </c>
       <c r="J207" t="s">
         <v>2016</v>
@@ -24698,7 +25320,10 @@
     </row>
     <row r="208" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1057</v>
+        <v>2693</v>
+      </c>
+      <c r="B208">
+        <v>221</v>
       </c>
       <c r="J208" t="s">
         <v>218</v>
@@ -24721,7 +25346,10 @@
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1058</v>
+        <v>2693</v>
+      </c>
+      <c r="B209">
+        <v>222</v>
       </c>
       <c r="J209" t="s">
         <v>219</v>
@@ -24744,7 +25372,10 @@
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1059</v>
+        <v>2693</v>
+      </c>
+      <c r="B210">
+        <v>223</v>
       </c>
       <c r="J210" t="s">
         <v>220</v>
@@ -24764,7 +25395,10 @@
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1060</v>
+        <v>2693</v>
+      </c>
+      <c r="B211">
+        <v>224</v>
       </c>
       <c r="J211" t="s">
         <v>221</v>
@@ -24784,7 +25418,10 @@
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>1062</v>
+        <v>2693</v>
+      </c>
+      <c r="B212">
+        <v>226</v>
       </c>
       <c r="J212" t="s">
         <v>223</v>
@@ -24807,7 +25444,10 @@
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1063</v>
+        <v>2693</v>
+      </c>
+      <c r="B213">
+        <v>227</v>
       </c>
       <c r="J213" t="s">
         <v>224</v>
@@ -24830,7 +25470,10 @@
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>1061</v>
+        <v>2693</v>
+      </c>
+      <c r="B214">
+        <v>225</v>
       </c>
       <c r="J214" t="s">
         <v>222</v>
@@ -24853,7 +25496,10 @@
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>1040</v>
+        <v>2693</v>
+      </c>
+      <c r="B215">
+        <v>204</v>
       </c>
       <c r="J215" t="s">
         <v>201</v>
@@ -24873,7 +25519,10 @@
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>1041</v>
+        <v>2693</v>
+      </c>
+      <c r="B216">
+        <v>205</v>
       </c>
       <c r="J216" t="s">
         <v>202</v>
@@ -24893,7 +25542,10 @@
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>1042</v>
+        <v>2693</v>
+      </c>
+      <c r="B217">
+        <v>206</v>
       </c>
       <c r="J217" t="s">
         <v>203</v>
@@ -24916,7 +25568,10 @@
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>1043</v>
+        <v>2693</v>
+      </c>
+      <c r="B218">
+        <v>207</v>
       </c>
       <c r="J218" t="s">
         <v>204</v>
@@ -24936,7 +25591,10 @@
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>1044</v>
+        <v>2693</v>
+      </c>
+      <c r="B219">
+        <v>208</v>
       </c>
       <c r="J219" t="s">
         <v>205</v>
@@ -24956,7 +25614,10 @@
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1046</v>
+        <v>2693</v>
+      </c>
+      <c r="B220">
+        <v>210</v>
       </c>
       <c r="J220" t="s">
         <v>207</v>
@@ -24976,7 +25637,10 @@
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>1045</v>
+        <v>2693</v>
+      </c>
+      <c r="B221">
+        <v>209</v>
       </c>
       <c r="J221" t="s">
         <v>206</v>
@@ -24999,7 +25663,10 @@
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1047</v>
+        <v>2693</v>
+      </c>
+      <c r="B222">
+        <v>211</v>
       </c>
       <c r="J222" t="s">
         <v>208</v>
@@ -25022,7 +25689,10 @@
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1053</v>
+        <v>2693</v>
+      </c>
+      <c r="B223">
+        <v>217</v>
       </c>
       <c r="J223" t="s">
         <v>214</v>
@@ -25045,7 +25715,10 @@
     </row>
     <row r="224" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1052</v>
+        <v>2693</v>
+      </c>
+      <c r="B224">
+        <v>216</v>
       </c>
       <c r="J224" t="s">
         <v>213</v>
@@ -25065,7 +25738,10 @@
     </row>
     <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>1048</v>
+        <v>2693</v>
+      </c>
+      <c r="B225">
+        <v>212</v>
       </c>
       <c r="J225" t="s">
         <v>2049</v>
@@ -25088,7 +25764,10 @@
     </row>
     <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1049</v>
+        <v>2693</v>
+      </c>
+      <c r="B226">
+        <v>213</v>
       </c>
       <c r="J226" t="s">
         <v>2051</v>
@@ -25111,7 +25790,10 @@
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>1050</v>
+        <v>2693</v>
+      </c>
+      <c r="B227">
+        <v>214</v>
       </c>
       <c r="J227" t="s">
         <v>2053</v>
@@ -25134,7 +25816,10 @@
     </row>
     <row r="228" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1051</v>
+        <v>2693</v>
+      </c>
+      <c r="B228">
+        <v>215</v>
       </c>
       <c r="J228" t="s">
         <v>212</v>
@@ -25151,7 +25836,10 @@
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>1066</v>
+        <v>2693</v>
+      </c>
+      <c r="B229">
+        <v>230</v>
       </c>
       <c r="J229" t="s">
         <v>227</v>
@@ -25174,7 +25862,10 @@
     </row>
     <row r="230" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1067</v>
+        <v>2693</v>
+      </c>
+      <c r="B230">
+        <v>231</v>
       </c>
       <c r="J230" t="s">
         <v>228</v>
@@ -25194,7 +25885,10 @@
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1068</v>
+        <v>2693</v>
+      </c>
+      <c r="B231">
+        <v>232</v>
       </c>
       <c r="J231" t="s">
         <v>229</v>
@@ -25214,7 +25908,10 @@
     </row>
     <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1114</v>
+        <v>2693</v>
+      </c>
+      <c r="B232">
+        <v>278</v>
       </c>
       <c r="J232" t="s">
         <v>275</v>
@@ -25234,7 +25931,10 @@
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>1115</v>
+        <v>2693</v>
+      </c>
+      <c r="B233">
+        <v>279</v>
       </c>
       <c r="J233" t="s">
         <v>276</v>
@@ -25251,7 +25951,10 @@
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1116</v>
+        <v>2693</v>
+      </c>
+      <c r="B234">
+        <v>280</v>
       </c>
       <c r="J234" t="s">
         <v>277</v>
@@ -25271,7 +25974,10 @@
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>1117</v>
+        <v>2693</v>
+      </c>
+      <c r="B235">
+        <v>281</v>
       </c>
       <c r="J235" t="s">
         <v>278</v>
@@ -25291,7 +25997,10 @@
     </row>
     <row r="236" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1118</v>
+        <v>2693</v>
+      </c>
+      <c r="B236">
+        <v>282</v>
       </c>
       <c r="J236" t="s">
         <v>279</v>
@@ -25314,7 +26023,10 @@
     </row>
     <row r="237" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>1120</v>
+        <v>2693</v>
+      </c>
+      <c r="B237">
+        <v>284</v>
       </c>
       <c r="J237" t="s">
         <v>281</v>
@@ -25334,7 +26046,10 @@
     </row>
     <row r="238" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1119</v>
+        <v>2693</v>
+      </c>
+      <c r="B238">
+        <v>283</v>
       </c>
       <c r="J238" t="s">
         <v>280</v>
@@ -25354,7 +26069,10 @@
     </row>
     <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1121</v>
+        <v>2693</v>
+      </c>
+      <c r="B239">
+        <v>285</v>
       </c>
       <c r="J239" t="s">
         <v>282</v>
@@ -25374,7 +26092,10 @@
     </row>
     <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1123</v>
+        <v>2693</v>
+      </c>
+      <c r="B240">
+        <v>287</v>
       </c>
       <c r="J240" t="s">
         <v>284</v>
@@ -25397,7 +26118,10 @@
     </row>
     <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>1122</v>
+        <v>2693</v>
+      </c>
+      <c r="B241">
+        <v>286</v>
       </c>
       <c r="J241" t="s">
         <v>283</v>
@@ -25417,7 +26141,10 @@
     </row>
     <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1125</v>
+        <v>2693</v>
+      </c>
+      <c r="B242">
+        <v>289</v>
       </c>
       <c r="J242" t="s">
         <v>286</v>
@@ -25437,7 +26164,10 @@
     </row>
     <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1126</v>
+        <v>2693</v>
+      </c>
+      <c r="B243">
+        <v>290</v>
       </c>
       <c r="J243" t="s">
         <v>287</v>
@@ -25460,7 +26190,10 @@
     </row>
     <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1124</v>
+        <v>2693</v>
+      </c>
+      <c r="B244">
+        <v>288</v>
       </c>
       <c r="J244" t="s">
         <v>2083</v>
@@ -25483,7 +26216,10 @@
     </row>
     <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1127</v>
+        <v>2693</v>
+      </c>
+      <c r="B245">
+        <v>291</v>
       </c>
       <c r="J245" t="s">
         <v>288</v>
@@ -25503,7 +26239,10 @@
     </row>
     <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1131</v>
+        <v>2693</v>
+      </c>
+      <c r="B246">
+        <v>295</v>
       </c>
       <c r="J246" t="s">
         <v>292</v>
@@ -25523,7 +26262,10 @@
     </row>
     <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1132</v>
+        <v>2693</v>
+      </c>
+      <c r="B247">
+        <v>296</v>
       </c>
       <c r="J247" t="s">
         <v>293</v>
@@ -25546,7 +26288,10 @@
     </row>
     <row r="248" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1128</v>
+        <v>2693</v>
+      </c>
+      <c r="B248">
+        <v>292</v>
       </c>
       <c r="J248" t="s">
         <v>2089</v>
@@ -25569,7 +26314,10 @@
     </row>
     <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1129</v>
+        <v>2693</v>
+      </c>
+      <c r="B249">
+        <v>293</v>
       </c>
       <c r="J249" t="s">
         <v>2089</v>
@@ -25592,7 +26340,10 @@
     </row>
     <row r="250" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1130</v>
+        <v>2693</v>
+      </c>
+      <c r="B250">
+        <v>294</v>
       </c>
       <c r="J250" t="s">
         <v>291</v>
@@ -25615,7 +26366,10 @@
     </row>
     <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1133</v>
+        <v>2693</v>
+      </c>
+      <c r="B251">
+        <v>297</v>
       </c>
       <c r="J251" t="s">
         <v>294</v>
@@ -25635,7 +26389,10 @@
     </row>
     <row r="252" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1135</v>
+        <v>2693</v>
+      </c>
+      <c r="B252">
+        <v>299</v>
       </c>
       <c r="J252" t="s">
         <v>296</v>
@@ -25655,7 +26412,10 @@
     </row>
     <row r="253" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1134</v>
+        <v>2693</v>
+      </c>
+      <c r="B253">
+        <v>298</v>
       </c>
       <c r="J253" t="s">
         <v>295</v>
@@ -25678,7 +26438,10 @@
     </row>
     <row r="254" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1069</v>
+        <v>2693</v>
+      </c>
+      <c r="B254">
+        <v>233</v>
       </c>
       <c r="J254" t="s">
         <v>230</v>
@@ -25698,7 +26461,10 @@
     </row>
     <row r="255" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1070</v>
+        <v>2693</v>
+      </c>
+      <c r="B255">
+        <v>234</v>
       </c>
       <c r="J255" t="s">
         <v>231</v>
@@ -25721,7 +26487,10 @@
     </row>
     <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1071</v>
+        <v>2693</v>
+      </c>
+      <c r="B256">
+        <v>235</v>
       </c>
       <c r="J256" t="s">
         <v>232</v>
@@ -25741,7 +26510,10 @@
     </row>
     <row r="257" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1080</v>
+        <v>2693</v>
+      </c>
+      <c r="B257">
+        <v>244</v>
       </c>
       <c r="J257" t="s">
         <v>241</v>
@@ -25761,7 +26533,10 @@
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1084</v>
+        <v>2693</v>
+      </c>
+      <c r="B258">
+        <v>248</v>
       </c>
       <c r="J258" t="s">
         <v>245</v>
@@ -25784,7 +26559,10 @@
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1082</v>
+        <v>2693</v>
+      </c>
+      <c r="B259">
+        <v>246</v>
       </c>
       <c r="J259" t="s">
         <v>243</v>
@@ -25804,7 +26582,10 @@
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1074</v>
+        <v>2693</v>
+      </c>
+      <c r="B260">
+        <v>238</v>
       </c>
       <c r="J260" t="s">
         <v>235</v>
@@ -25824,7 +26605,10 @@
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1078</v>
+        <v>2693</v>
+      </c>
+      <c r="B261">
+        <v>242</v>
       </c>
       <c r="J261" t="s">
         <v>239</v>
@@ -25847,7 +26631,10 @@
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1075</v>
+        <v>2693</v>
+      </c>
+      <c r="B262">
+        <v>239</v>
       </c>
       <c r="J262" t="s">
         <v>236</v>
@@ -25870,7 +26657,10 @@
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1073</v>
+        <v>2693</v>
+      </c>
+      <c r="B263">
+        <v>237</v>
       </c>
       <c r="J263" t="s">
         <v>234</v>
@@ -25890,7 +26680,10 @@
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1076</v>
+        <v>2693</v>
+      </c>
+      <c r="B264">
+        <v>240</v>
       </c>
       <c r="J264" t="s">
         <v>237</v>
@@ -25910,7 +26703,10 @@
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1072</v>
+        <v>2693</v>
+      </c>
+      <c r="B265">
+        <v>236</v>
       </c>
       <c r="J265" t="s">
         <v>233</v>
@@ -25933,7 +26729,10 @@
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1077</v>
+        <v>2693</v>
+      </c>
+      <c r="B266">
+        <v>241</v>
       </c>
       <c r="J266" t="s">
         <v>238</v>
@@ -25956,7 +26755,10 @@
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1079</v>
+        <v>2693</v>
+      </c>
+      <c r="B267">
+        <v>243</v>
       </c>
       <c r="J267" t="s">
         <v>240</v>
@@ -25976,7 +26778,10 @@
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1081</v>
+        <v>2693</v>
+      </c>
+      <c r="B268">
+        <v>245</v>
       </c>
       <c r="J268" t="s">
         <v>242</v>
@@ -25999,7 +26804,10 @@
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1083</v>
+        <v>2693</v>
+      </c>
+      <c r="B269">
+        <v>247</v>
       </c>
       <c r="J269" t="s">
         <v>244</v>
@@ -26022,7 +26830,10 @@
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1086</v>
+        <v>2693</v>
+      </c>
+      <c r="B270">
+        <v>250</v>
       </c>
       <c r="J270" t="s">
         <v>247</v>
@@ -26045,7 +26856,10 @@
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1085</v>
+        <v>2693</v>
+      </c>
+      <c r="B271">
+        <v>249</v>
       </c>
       <c r="J271" t="s">
         <v>246</v>
@@ -26062,7 +26876,10 @@
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1087</v>
+        <v>2693</v>
+      </c>
+      <c r="B272">
+        <v>251</v>
       </c>
       <c r="J272" t="s">
         <v>248</v>
@@ -26082,7 +26899,10 @@
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1089</v>
+        <v>2693</v>
+      </c>
+      <c r="B273">
+        <v>253</v>
       </c>
       <c r="J273" t="s">
         <v>250</v>
@@ -26105,7 +26925,10 @@
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1088</v>
+        <v>2693</v>
+      </c>
+      <c r="B274">
+        <v>252</v>
       </c>
       <c r="J274" t="s">
         <v>249</v>
@@ -26128,7 +26951,10 @@
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1094</v>
+        <v>2693</v>
+      </c>
+      <c r="B275">
+        <v>258</v>
       </c>
       <c r="J275" t="s">
         <v>255</v>
@@ -26148,7 +26974,10 @@
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1092</v>
+        <v>2693</v>
+      </c>
+      <c r="B276">
+        <v>256</v>
       </c>
       <c r="J276" t="s">
         <v>253</v>
@@ -26168,7 +26997,10 @@
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1093</v>
+        <v>2693</v>
+      </c>
+      <c r="B277">
+        <v>257</v>
       </c>
       <c r="J277" t="s">
         <v>254</v>
@@ -26188,7 +27020,10 @@
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1091</v>
+        <v>2693</v>
+      </c>
+      <c r="B278">
+        <v>255</v>
       </c>
       <c r="J278" t="s">
         <v>252</v>
@@ -26205,7 +27040,10 @@
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1095</v>
+        <v>2693</v>
+      </c>
+      <c r="B279">
+        <v>259</v>
       </c>
       <c r="J279" t="s">
         <v>256</v>
@@ -26225,7 +27063,10 @@
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1096</v>
+        <v>2693</v>
+      </c>
+      <c r="B280">
+        <v>260</v>
       </c>
       <c r="J280" t="s">
         <v>257</v>
@@ -26248,7 +27089,10 @@
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1099</v>
+        <v>2693</v>
+      </c>
+      <c r="B281">
+        <v>263</v>
       </c>
       <c r="J281" t="s">
         <v>260</v>
@@ -26268,7 +27112,10 @@
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1097</v>
+        <v>2693</v>
+      </c>
+      <c r="B282">
+        <v>261</v>
       </c>
       <c r="J282" t="s">
         <v>258</v>
@@ -26288,7 +27135,10 @@
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1100</v>
+        <v>2693</v>
+      </c>
+      <c r="B283">
+        <v>264</v>
       </c>
       <c r="J283" t="s">
         <v>261</v>
@@ -26308,7 +27158,10 @@
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1098</v>
+        <v>2693</v>
+      </c>
+      <c r="B284">
+        <v>262</v>
       </c>
       <c r="J284" t="s">
         <v>259</v>
@@ -26328,7 +27181,10 @@
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1101</v>
+        <v>2693</v>
+      </c>
+      <c r="B285">
+        <v>265</v>
       </c>
       <c r="J285" t="s">
         <v>262</v>
@@ -26348,7 +27204,10 @@
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1103</v>
+        <v>2693</v>
+      </c>
+      <c r="B286">
+        <v>267</v>
       </c>
       <c r="J286" t="s">
         <v>264</v>
@@ -26371,7 +27230,10 @@
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1104</v>
+        <v>2693</v>
+      </c>
+      <c r="B287">
+        <v>268</v>
       </c>
       <c r="J287" t="s">
         <v>265</v>
@@ -26394,7 +27256,10 @@
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1105</v>
+        <v>2693</v>
+      </c>
+      <c r="B288">
+        <v>269</v>
       </c>
       <c r="J288" t="s">
         <v>266</v>
@@ -26417,7 +27282,10 @@
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1106</v>
+        <v>2693</v>
+      </c>
+      <c r="B289">
+        <v>270</v>
       </c>
       <c r="J289" t="s">
         <v>267</v>
@@ -26440,7 +27308,10 @@
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1102</v>
+        <v>2693</v>
+      </c>
+      <c r="B290">
+        <v>266</v>
       </c>
       <c r="J290" t="s">
         <v>263</v>
@@ -26460,7 +27331,10 @@
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1107</v>
+        <v>2693</v>
+      </c>
+      <c r="B291">
+        <v>271</v>
       </c>
       <c r="J291" t="s">
         <v>268</v>
@@ -26483,7 +27357,10 @@
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1108</v>
+        <v>2693</v>
+      </c>
+      <c r="B292">
+        <v>272</v>
       </c>
       <c r="J292" t="s">
         <v>269</v>
@@ -26503,7 +27380,10 @@
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1110</v>
+        <v>2693</v>
+      </c>
+      <c r="B293">
+        <v>274</v>
       </c>
       <c r="J293" t="s">
         <v>271</v>
@@ -26526,7 +27406,10 @@
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1111</v>
+        <v>2693</v>
+      </c>
+      <c r="B294">
+        <v>275</v>
       </c>
       <c r="J294" t="s">
         <v>272</v>
@@ -26546,7 +27429,10 @@
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1109</v>
+        <v>2693</v>
+      </c>
+      <c r="B295">
+        <v>273</v>
       </c>
       <c r="J295" t="s">
         <v>270</v>
@@ -26563,7 +27449,10 @@
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1112</v>
+        <v>2693</v>
+      </c>
+      <c r="B296">
+        <v>276</v>
       </c>
       <c r="J296" t="s">
         <v>273</v>
@@ -26583,7 +27472,10 @@
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1113</v>
+        <v>2693</v>
+      </c>
+      <c r="B297">
+        <v>277</v>
       </c>
       <c r="J297" t="s">
         <v>274</v>
@@ -26606,7 +27498,10 @@
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1136</v>
+        <v>2693</v>
+      </c>
+      <c r="B298">
+        <v>300</v>
       </c>
       <c r="J298" t="s">
         <v>297</v>
@@ -26629,7 +27524,10 @@
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1137</v>
+        <v>2693</v>
+      </c>
+      <c r="B299">
+        <v>301</v>
       </c>
       <c r="J299" t="s">
         <v>298</v>
@@ -26646,7 +27544,10 @@
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>1138</v>
+        <v>2693</v>
+      </c>
+      <c r="B300">
+        <v>302</v>
       </c>
       <c r="J300" t="s">
         <v>299</v>
@@ -26663,7 +27564,10 @@
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1139</v>
+        <v>2693</v>
+      </c>
+      <c r="B301">
+        <v>303</v>
       </c>
       <c r="J301" t="s">
         <v>300</v>
@@ -26683,7 +27587,10 @@
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1141</v>
+        <v>2693</v>
+      </c>
+      <c r="B302">
+        <v>305</v>
       </c>
       <c r="J302" t="s">
         <v>302</v>
@@ -26703,7 +27610,10 @@
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>1140</v>
+        <v>2693</v>
+      </c>
+      <c r="B303">
+        <v>304</v>
       </c>
       <c r="J303" t="s">
         <v>301</v>
@@ -26723,7 +27633,10 @@
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1142</v>
+        <v>2693</v>
+      </c>
+      <c r="B304">
+        <v>306</v>
       </c>
       <c r="J304" t="s">
         <v>303</v>
@@ -26743,7 +27656,10 @@
     </row>
     <row r="305" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1144</v>
+        <v>2693</v>
+      </c>
+      <c r="B305">
+        <v>308</v>
       </c>
       <c r="J305" t="s">
         <v>305</v>
@@ -26766,7 +27682,10 @@
     </row>
     <row r="306" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>1145</v>
+        <v>2693</v>
+      </c>
+      <c r="B306">
+        <v>309</v>
       </c>
       <c r="J306" t="s">
         <v>306</v>
@@ -26786,7 +27705,10 @@
     </row>
     <row r="307" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1143</v>
+        <v>2693</v>
+      </c>
+      <c r="B307">
+        <v>307</v>
       </c>
       <c r="J307" t="s">
         <v>304</v>
@@ -26809,7 +27731,10 @@
     </row>
     <row r="308" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1146</v>
+        <v>2693</v>
+      </c>
+      <c r="B308">
+        <v>310</v>
       </c>
       <c r="J308" t="s">
         <v>307</v>
@@ -26829,7 +27754,10 @@
     </row>
     <row r="309" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1147</v>
+        <v>2693</v>
+      </c>
+      <c r="B309">
+        <v>311</v>
       </c>
       <c r="J309" t="s">
         <v>308</v>
@@ -26849,7 +27777,10 @@
     </row>
     <row r="310" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1148</v>
+        <v>2693</v>
+      </c>
+      <c r="B310">
+        <v>312</v>
       </c>
       <c r="J310" t="s">
         <v>2191</v>
@@ -26872,7 +27803,10 @@
     </row>
     <row r="311" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1152</v>
+        <v>2693</v>
+      </c>
+      <c r="B311">
+        <v>316</v>
       </c>
       <c r="J311" t="s">
         <v>313</v>
@@ -26892,7 +27826,10 @@
     </row>
     <row r="312" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1151</v>
+        <v>2693</v>
+      </c>
+      <c r="B312">
+        <v>315</v>
       </c>
       <c r="J312" t="s">
         <v>312</v>
@@ -26912,7 +27849,10 @@
     </row>
     <row r="313" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1153</v>
+        <v>2693</v>
+      </c>
+      <c r="B313">
+        <v>317</v>
       </c>
       <c r="J313" t="s">
         <v>314</v>
@@ -26932,7 +27872,10 @@
     </row>
     <row r="314" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>1150</v>
+        <v>2693</v>
+      </c>
+      <c r="B314">
+        <v>314</v>
       </c>
       <c r="J314" t="s">
         <v>311</v>
@@ -26952,7 +27895,10 @@
     </row>
     <row r="315" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1149</v>
+        <v>2693</v>
+      </c>
+      <c r="B315">
+        <v>313</v>
       </c>
       <c r="J315" t="s">
         <v>2197</v>
@@ -26975,7 +27921,10 @@
     </row>
     <row r="316" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1154</v>
+        <v>2693</v>
+      </c>
+      <c r="B316">
+        <v>318</v>
       </c>
       <c r="J316" t="s">
         <v>315</v>
@@ -26995,7 +27944,10 @@
     </row>
     <row r="317" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1155</v>
+        <v>2693</v>
+      </c>
+      <c r="B317">
+        <v>319</v>
       </c>
       <c r="J317" t="s">
         <v>316</v>
@@ -27015,7 +27967,10 @@
     </row>
     <row r="318" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1156</v>
+        <v>2693</v>
+      </c>
+      <c r="B318">
+        <v>320</v>
       </c>
       <c r="J318" t="s">
         <v>317</v>
@@ -27035,7 +27990,10 @@
     </row>
     <row r="319" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1157</v>
+        <v>2693</v>
+      </c>
+      <c r="B319">
+        <v>321</v>
       </c>
       <c r="J319" t="s">
         <v>318</v>
@@ -27055,7 +28013,10 @@
     </row>
     <row r="320" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1164</v>
+        <v>2693</v>
+      </c>
+      <c r="B320">
+        <v>328</v>
       </c>
       <c r="J320" t="s">
         <v>325</v>
@@ -27075,7 +28036,10 @@
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1159</v>
+        <v>2693</v>
+      </c>
+      <c r="B321">
+        <v>323</v>
       </c>
       <c r="J321" t="s">
         <v>320</v>
@@ -27095,7 +28059,10 @@
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1158</v>
+        <v>2693</v>
+      </c>
+      <c r="B322">
+        <v>322</v>
       </c>
       <c r="J322" t="s">
         <v>319</v>
@@ -27118,7 +28085,10 @@
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1163</v>
+        <v>2693</v>
+      </c>
+      <c r="B323">
+        <v>327</v>
       </c>
       <c r="J323" t="s">
         <v>324</v>
@@ -27138,7 +28108,10 @@
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1162</v>
+        <v>2693</v>
+      </c>
+      <c r="B324">
+        <v>326</v>
       </c>
       <c r="J324" t="s">
         <v>323</v>
@@ -27158,7 +28131,10 @@
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1160</v>
+        <v>2693</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
       </c>
       <c r="J325" t="s">
         <v>321</v>
@@ -27175,7 +28151,10 @@
     </row>
     <row r="326" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1161</v>
+        <v>2693</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
       </c>
       <c r="J326" t="s">
         <v>322</v>
@@ -27192,7 +28171,10 @@
     </row>
     <row r="327" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>1165</v>
+        <v>2693</v>
+      </c>
+      <c r="B327">
+        <v>329</v>
       </c>
       <c r="J327" t="s">
         <v>326</v>
@@ -27215,7 +28197,10 @@
     </row>
     <row r="328" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>1166</v>
+        <v>2693</v>
+      </c>
+      <c r="B328">
+        <v>330</v>
       </c>
       <c r="J328" t="s">
         <v>327</v>
@@ -27235,7 +28220,10 @@
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>1167</v>
+        <v>2693</v>
+      </c>
+      <c r="B329">
+        <v>331</v>
       </c>
       <c r="J329" t="s">
         <v>328</v>
@@ -27255,7 +28243,10 @@
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>1168</v>
+        <v>2693</v>
+      </c>
+      <c r="B330">
+        <v>332</v>
       </c>
       <c r="J330" t="s">
         <v>329</v>
@@ -27275,7 +28266,10 @@
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>1169</v>
+        <v>2693</v>
+      </c>
+      <c r="B331">
+        <v>333</v>
       </c>
       <c r="J331" t="s">
         <v>330</v>
@@ -27295,7 +28289,10 @@
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>1176</v>
+        <v>2693</v>
+      </c>
+      <c r="B332">
+        <v>340</v>
       </c>
       <c r="J332" t="s">
         <v>337</v>
@@ -27318,7 +28315,10 @@
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1177</v>
+        <v>2693</v>
+      </c>
+      <c r="B333">
+        <v>341</v>
       </c>
       <c r="J333" t="s">
         <v>338</v>
@@ -27338,7 +28338,10 @@
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>1178</v>
+        <v>2693</v>
+      </c>
+      <c r="B334">
+        <v>342</v>
       </c>
       <c r="J334" t="s">
         <v>339</v>
@@ -27358,7 +28361,10 @@
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1175</v>
+        <v>2693</v>
+      </c>
+      <c r="B335">
+        <v>339</v>
       </c>
       <c r="J335" t="s">
         <v>336</v>
@@ -27378,7 +28384,10 @@
     </row>
     <row r="336" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1170</v>
+        <v>2693</v>
+      </c>
+      <c r="B336">
+        <v>334</v>
       </c>
       <c r="J336" t="s">
         <v>331</v>
@@ -27401,7 +28410,10 @@
     </row>
     <row r="337" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1172</v>
+        <v>2693</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
       </c>
       <c r="J337" t="s">
         <v>333</v>
@@ -27424,7 +28436,10 @@
     </row>
     <row r="338" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1171</v>
+        <v>2693</v>
+      </c>
+      <c r="B338">
+        <v>335</v>
       </c>
       <c r="J338" t="s">
         <v>332</v>
@@ -27447,7 +28462,10 @@
     </row>
     <row r="339" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1174</v>
+        <v>2693</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
       </c>
       <c r="J339" t="s">
         <v>335</v>
@@ -27467,7 +28485,10 @@
     </row>
     <row r="340" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1173</v>
+        <v>2693</v>
+      </c>
+      <c r="B340">
+        <v>337</v>
       </c>
       <c r="J340" t="s">
         <v>334</v>
@@ -27487,7 +28508,10 @@
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1188</v>
+        <v>2693</v>
+      </c>
+      <c r="B341">
+        <v>352</v>
       </c>
       <c r="J341" t="s">
         <v>349</v>
@@ -27510,7 +28534,10 @@
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>1180</v>
+        <v>2693</v>
+      </c>
+      <c r="B342">
+        <v>344</v>
       </c>
       <c r="J342" t="s">
         <v>341</v>
@@ -27530,7 +28557,10 @@
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1179</v>
+        <v>2693</v>
+      </c>
+      <c r="B343">
+        <v>343</v>
       </c>
       <c r="J343" t="s">
         <v>340</v>
@@ -27550,7 +28580,10 @@
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1181</v>
+        <v>2693</v>
+      </c>
+      <c r="B344">
+        <v>345</v>
       </c>
       <c r="J344" t="s">
         <v>342</v>
@@ -27567,7 +28600,10 @@
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1183</v>
+        <v>2693</v>
+      </c>
+      <c r="B345">
+        <v>347</v>
       </c>
       <c r="J345" t="s">
         <v>344</v>
@@ -27587,7 +28623,10 @@
     </row>
     <row r="346" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1182</v>
+        <v>2693</v>
+      </c>
+      <c r="B346">
+        <v>346</v>
       </c>
       <c r="J346" t="s">
         <v>343</v>
@@ -27604,7 +28643,10 @@
     </row>
     <row r="347" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1184</v>
+        <v>2693</v>
+      </c>
+      <c r="B347">
+        <v>348</v>
       </c>
       <c r="J347" t="s">
         <v>345</v>
@@ -27627,7 +28669,10 @@
     </row>
     <row r="348" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>1187</v>
+        <v>2693</v>
+      </c>
+      <c r="B348">
+        <v>351</v>
       </c>
       <c r="J348" t="s">
         <v>348</v>
@@ -27647,7 +28692,10 @@
     </row>
     <row r="349" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>1185</v>
+        <v>2693</v>
+      </c>
+      <c r="B349">
+        <v>349</v>
       </c>
       <c r="J349" t="s">
         <v>346</v>
@@ -27667,7 +28715,10 @@
     </row>
     <row r="350" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1186</v>
+        <v>2693</v>
+      </c>
+      <c r="B350">
+        <v>350</v>
       </c>
       <c r="J350" t="s">
         <v>347</v>
@@ -27687,7 +28738,10 @@
     </row>
     <row r="351" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1189</v>
+        <v>2693</v>
+      </c>
+      <c r="B351">
+        <v>353</v>
       </c>
       <c r="J351" t="s">
         <v>350</v>
@@ -27704,7 +28758,10 @@
     </row>
     <row r="352" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1190</v>
+        <v>2693</v>
+      </c>
+      <c r="B352">
+        <v>354</v>
       </c>
       <c r="J352" t="s">
         <v>351</v>
@@ -27724,7 +28781,10 @@
     </row>
     <row r="353" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1191</v>
+        <v>2693</v>
+      </c>
+      <c r="B353">
+        <v>355</v>
       </c>
       <c r="J353" t="s">
         <v>352</v>
@@ -27744,7 +28804,10 @@
     </row>
     <row r="354" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1193</v>
+        <v>2693</v>
+      </c>
+      <c r="B354">
+        <v>357</v>
       </c>
       <c r="J354" t="s">
         <v>354</v>
@@ -27761,7 +28824,10 @@
     </row>
     <row r="355" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1194</v>
+        <v>2693</v>
+      </c>
+      <c r="B355">
+        <v>358</v>
       </c>
       <c r="J355" t="s">
         <v>355</v>
@@ -27781,7 +28847,10 @@
     </row>
     <row r="356" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1195</v>
+        <v>2693</v>
+      </c>
+      <c r="B356">
+        <v>359</v>
       </c>
       <c r="J356" t="s">
         <v>356</v>
@@ -27804,7 +28873,10 @@
     </row>
     <row r="357" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>1196</v>
+        <v>2693</v>
+      </c>
+      <c r="B357">
+        <v>360</v>
       </c>
       <c r="J357" t="s">
         <v>357</v>
@@ -27827,7 +28899,10 @@
     </row>
     <row r="358" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>1197</v>
+        <v>2693</v>
+      </c>
+      <c r="B358">
+        <v>361</v>
       </c>
       <c r="J358" t="s">
         <v>358</v>
@@ -27847,7 +28922,10 @@
     </row>
     <row r="359" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>1198</v>
+        <v>2693</v>
+      </c>
+      <c r="B359">
+        <v>362</v>
       </c>
       <c r="J359" t="s">
         <v>359</v>
@@ -27867,7 +28945,10 @@
     </row>
     <row r="360" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>1199</v>
+        <v>2693</v>
+      </c>
+      <c r="B360">
+        <v>363</v>
       </c>
       <c r="J360" t="s">
         <v>360</v>
@@ -27890,7 +28971,10 @@
     </row>
     <row r="361" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1201</v>
+        <v>2693</v>
+      </c>
+      <c r="B361">
+        <v>365</v>
       </c>
       <c r="J361" t="s">
         <v>362</v>
@@ -27910,7 +28994,10 @@
     </row>
     <row r="362" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1200</v>
+        <v>2693</v>
+      </c>
+      <c r="B362">
+        <v>364</v>
       </c>
       <c r="J362" t="s">
         <v>361</v>
@@ -27933,7 +29020,10 @@
     </row>
     <row r="363" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>1202</v>
+        <v>2693</v>
+      </c>
+      <c r="B363">
+        <v>366</v>
       </c>
       <c r="J363" t="s">
         <v>363</v>
@@ -27956,7 +29046,10 @@
     </row>
     <row r="364" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>1203</v>
+        <v>2693</v>
+      </c>
+      <c r="B364">
+        <v>367</v>
       </c>
       <c r="J364" t="s">
         <v>2289</v>
@@ -27982,7 +29075,10 @@
     </row>
     <row r="365" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1207</v>
+        <v>2693</v>
+      </c>
+      <c r="B365">
+        <v>371</v>
       </c>
       <c r="J365" t="s">
         <v>368</v>
@@ -28002,7 +29098,10 @@
     </row>
     <row r="366" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>1206</v>
+        <v>2693</v>
+      </c>
+      <c r="B366">
+        <v>370</v>
       </c>
       <c r="J366" t="s">
         <v>367</v>
@@ -28022,7 +29121,10 @@
     </row>
     <row r="367" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>1208</v>
+        <v>2693</v>
+      </c>
+      <c r="B367">
+        <v>372</v>
       </c>
       <c r="J367" t="s">
         <v>369</v>
@@ -28042,7 +29144,10 @@
     </row>
     <row r="368" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>1209</v>
+        <v>2693</v>
+      </c>
+      <c r="B368">
+        <v>373</v>
       </c>
       <c r="J368" t="s">
         <v>370</v>
@@ -28062,7 +29167,10 @@
     </row>
     <row r="369" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>1214</v>
+        <v>2693</v>
+      </c>
+      <c r="B369">
+        <v>378</v>
       </c>
       <c r="J369" t="s">
         <v>375</v>
@@ -28082,7 +29190,10 @@
     </row>
     <row r="370" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>1213</v>
+        <v>2693</v>
+      </c>
+      <c r="B370">
+        <v>377</v>
       </c>
       <c r="J370" t="s">
         <v>374</v>
@@ -28102,7 +29213,10 @@
     </row>
     <row r="371" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>1210</v>
+        <v>2693</v>
+      </c>
+      <c r="B371">
+        <v>374</v>
       </c>
       <c r="J371" t="s">
         <v>371</v>
@@ -28122,7 +29236,10 @@
     </row>
     <row r="372" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>1211</v>
+        <v>2693</v>
+      </c>
+      <c r="B372">
+        <v>375</v>
       </c>
       <c r="J372" t="s">
         <v>372</v>
@@ -28142,7 +29259,10 @@
     </row>
     <row r="373" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>1212</v>
+        <v>2693</v>
+      </c>
+      <c r="B373">
+        <v>376</v>
       </c>
       <c r="J373" t="s">
         <v>373</v>
@@ -28162,7 +29282,10 @@
     </row>
     <row r="374" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>1216</v>
+        <v>2693</v>
+      </c>
+      <c r="B374">
+        <v>380</v>
       </c>
       <c r="J374" t="s">
         <v>377</v>
@@ -28185,7 +29308,10 @@
     </row>
     <row r="375" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>1215</v>
+        <v>2693</v>
+      </c>
+      <c r="B375">
+        <v>379</v>
       </c>
       <c r="J375" t="s">
         <v>376</v>
@@ -28208,7 +29334,10 @@
     </row>
     <row r="376" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>1217</v>
+        <v>2693</v>
+      </c>
+      <c r="B376">
+        <v>381</v>
       </c>
       <c r="J376" t="s">
         <v>378</v>
@@ -28231,7 +29360,10 @@
     </row>
     <row r="377" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>1218</v>
+        <v>2693</v>
+      </c>
+      <c r="B377">
+        <v>382</v>
       </c>
       <c r="J377" t="s">
         <v>2316</v>
@@ -28254,7 +29386,10 @@
     </row>
     <row r="378" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>1221</v>
+        <v>2693</v>
+      </c>
+      <c r="B378">
+        <v>385</v>
       </c>
       <c r="J378" t="s">
         <v>381</v>
@@ -28271,7 +29406,10 @@
     </row>
     <row r="379" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>1219</v>
+        <v>2693</v>
+      </c>
+      <c r="B379">
+        <v>383</v>
       </c>
       <c r="J379" t="s">
         <v>380</v>
@@ -28291,7 +29429,10 @@
     </row>
     <row r="380" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>1220</v>
+        <v>2693</v>
+      </c>
+      <c r="B380">
+        <v>384</v>
       </c>
       <c r="J380" t="s">
         <v>380</v>
@@ -28311,7 +29452,10 @@
     </row>
     <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>1222</v>
+        <v>2693</v>
+      </c>
+      <c r="B381">
+        <v>386</v>
       </c>
       <c r="J381" t="s">
         <v>2320</v>
@@ -28334,7 +29478,10 @@
     </row>
     <row r="382" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>1223</v>
+        <v>2693</v>
+      </c>
+      <c r="B382">
+        <v>387</v>
       </c>
       <c r="J382" t="s">
         <v>2320</v>
@@ -28357,7 +29504,10 @@
     </row>
     <row r="383" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>1224</v>
+        <v>2693</v>
+      </c>
+      <c r="B383">
+        <v>388</v>
       </c>
       <c r="J383" t="s">
         <v>384</v>
@@ -28377,7 +29527,10 @@
     </row>
     <row r="384" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>1226</v>
+        <v>2693</v>
+      </c>
+      <c r="B384">
+        <v>390</v>
       </c>
       <c r="J384" t="s">
         <v>386</v>
@@ -28400,7 +29553,10 @@
     </row>
     <row r="385" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>1225</v>
+        <v>2693</v>
+      </c>
+      <c r="B385">
+        <v>389</v>
       </c>
       <c r="J385" t="s">
         <v>385</v>
@@ -28420,7 +29576,10 @@
     </row>
     <row r="386" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>1227</v>
+        <v>2693</v>
+      </c>
+      <c r="B386">
+        <v>391</v>
       </c>
       <c r="J386" t="s">
         <v>387</v>
@@ -28443,7 +29602,10 @@
     </row>
     <row r="387" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>1229</v>
+        <v>2693</v>
+      </c>
+      <c r="B387">
+        <v>393</v>
       </c>
       <c r="J387" t="s">
         <v>389</v>
@@ -28463,7 +29625,10 @@
     </row>
     <row r="388" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>1228</v>
+        <v>2693</v>
+      </c>
+      <c r="B388">
+        <v>392</v>
       </c>
       <c r="J388" t="s">
         <v>388</v>
@@ -28483,7 +29648,10 @@
     </row>
     <row r="389" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>1230</v>
+        <v>2693</v>
+      </c>
+      <c r="B389">
+        <v>394</v>
       </c>
       <c r="J389" t="s">
         <v>390</v>
@@ -28506,7 +29674,10 @@
     </row>
     <row r="390" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>1231</v>
+        <v>2693</v>
+      </c>
+      <c r="B390">
+        <v>395</v>
       </c>
       <c r="J390" t="s">
         <v>391</v>
@@ -28529,7 +29700,10 @@
     </row>
     <row r="391" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>1233</v>
+        <v>2693</v>
+      </c>
+      <c r="B391">
+        <v>397</v>
       </c>
       <c r="J391" t="s">
         <v>393</v>
@@ -28552,7 +29726,10 @@
     </row>
     <row r="392" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>1232</v>
+        <v>2693</v>
+      </c>
+      <c r="B392">
+        <v>396</v>
       </c>
       <c r="J392" t="s">
         <v>392</v>
@@ -28575,7 +29752,10 @@
     </row>
     <row r="393" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>1234</v>
+        <v>2693</v>
+      </c>
+      <c r="B393">
+        <v>398</v>
       </c>
       <c r="J393" t="s">
         <v>394</v>
@@ -28598,7 +29778,10 @@
     </row>
     <row r="394" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>1235</v>
+        <v>2693</v>
+      </c>
+      <c r="B394">
+        <v>399</v>
       </c>
       <c r="J394" t="s">
         <v>395</v>
@@ -28621,7 +29804,10 @@
     </row>
     <row r="395" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>1236</v>
+        <v>2693</v>
+      </c>
+      <c r="B395">
+        <v>400</v>
       </c>
       <c r="J395" t="s">
         <v>396</v>
@@ -28641,7 +29827,10 @@
     </row>
     <row r="396" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>1237</v>
+        <v>2693</v>
+      </c>
+      <c r="B396">
+        <v>401</v>
       </c>
       <c r="J396" t="s">
         <v>2351</v>
@@ -28664,7 +29853,10 @@
     </row>
     <row r="397" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>1238</v>
+        <v>2693</v>
+      </c>
+      <c r="B397">
+        <v>402</v>
       </c>
       <c r="J397" t="s">
         <v>398</v>
@@ -28684,7 +29876,10 @@
     </row>
     <row r="398" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>1239</v>
+        <v>2693</v>
+      </c>
+      <c r="B398">
+        <v>403</v>
       </c>
       <c r="J398" t="s">
         <v>399</v>
@@ -28704,7 +29899,10 @@
     </row>
     <row r="399" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>1259</v>
+        <v>2693</v>
+      </c>
+      <c r="B399">
+        <v>423</v>
       </c>
       <c r="J399" t="s">
         <v>417</v>
@@ -28727,7 +29925,10 @@
     </row>
     <row r="400" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>1258</v>
+        <v>2693</v>
+      </c>
+      <c r="B400">
+        <v>422</v>
       </c>
       <c r="J400" t="s">
         <v>416</v>
@@ -28750,7 +29951,10 @@
     </row>
     <row r="401" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>1240</v>
+        <v>2693</v>
+      </c>
+      <c r="B401">
+        <v>404</v>
       </c>
       <c r="J401" t="s">
         <v>2360</v>
@@ -28773,7 +29977,10 @@
     </row>
     <row r="402" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>1241</v>
+        <v>2693</v>
+      </c>
+      <c r="B402">
+        <v>405</v>
       </c>
       <c r="J402" t="s">
         <v>2360</v>
@@ -28796,7 +30003,10 @@
     </row>
     <row r="403" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>1244</v>
+        <v>2693</v>
+      </c>
+      <c r="B403">
+        <v>408</v>
       </c>
       <c r="J403" t="s">
         <v>402</v>
@@ -28819,7 +30029,10 @@
     </row>
     <row r="404" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>1242</v>
+        <v>2693</v>
+      </c>
+      <c r="B404">
+        <v>406</v>
       </c>
       <c r="J404" t="s">
         <v>2364</v>
@@ -28842,7 +30055,10 @@
     </row>
     <row r="405" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>1243</v>
+        <v>2693</v>
+      </c>
+      <c r="B405">
+        <v>407</v>
       </c>
       <c r="J405" t="s">
         <v>2364</v>
@@ -28865,7 +30081,10 @@
     </row>
     <row r="406" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>1245</v>
+        <v>2693</v>
+      </c>
+      <c r="B406">
+        <v>409</v>
       </c>
       <c r="J406" t="s">
         <v>403</v>
@@ -28888,7 +30107,10 @@
     </row>
     <row r="407" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>1246</v>
+        <v>2693</v>
+      </c>
+      <c r="B407">
+        <v>410</v>
       </c>
       <c r="J407" t="s">
         <v>404</v>
@@ -28911,7 +30133,10 @@
     </row>
     <row r="408" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>1247</v>
+        <v>2693</v>
+      </c>
+      <c r="B408">
+        <v>411</v>
       </c>
       <c r="J408" t="s">
         <v>405</v>
@@ -28931,7 +30156,10 @@
     </row>
     <row r="409" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>1249</v>
+        <v>2693</v>
+      </c>
+      <c r="B409">
+        <v>413</v>
       </c>
       <c r="J409" t="s">
         <v>407</v>
@@ -28954,7 +30182,10 @@
     </row>
     <row r="410" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>1248</v>
+        <v>2693</v>
+      </c>
+      <c r="B410">
+        <v>412</v>
       </c>
       <c r="J410" t="s">
         <v>406</v>
@@ -28977,7 +30208,10 @@
     </row>
     <row r="411" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>1251</v>
+        <v>2693</v>
+      </c>
+      <c r="B411">
+        <v>415</v>
       </c>
       <c r="J411" t="s">
         <v>409</v>
@@ -29000,7 +30234,10 @@
     </row>
     <row r="412" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>1252</v>
+        <v>2693</v>
+      </c>
+      <c r="B412">
+        <v>416</v>
       </c>
       <c r="J412" t="s">
         <v>410</v>
@@ -29023,7 +30260,10 @@
     </row>
     <row r="413" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>1250</v>
+        <v>2693</v>
+      </c>
+      <c r="B413">
+        <v>414</v>
       </c>
       <c r="J413" t="s">
         <v>408</v>
@@ -29046,7 +30286,10 @@
     </row>
     <row r="414" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>1253</v>
+        <v>2693</v>
+      </c>
+      <c r="B414">
+        <v>417</v>
       </c>
       <c r="J414" t="s">
         <v>411</v>
@@ -29069,7 +30312,10 @@
     </row>
     <row r="415" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>1254</v>
+        <v>2693</v>
+      </c>
+      <c r="B415">
+        <v>418</v>
       </c>
       <c r="J415" t="s">
         <v>412</v>
@@ -29092,7 +30338,10 @@
     </row>
     <row r="416" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>1256</v>
+        <v>2693</v>
+      </c>
+      <c r="B416">
+        <v>420</v>
       </c>
       <c r="J416" t="s">
         <v>414</v>
@@ -29115,7 +30364,10 @@
     </row>
     <row r="417" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>1255</v>
+        <v>2693</v>
+      </c>
+      <c r="B417">
+        <v>419</v>
       </c>
       <c r="J417" t="s">
         <v>413</v>
@@ -29138,7 +30390,10 @@
     </row>
     <row r="418" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>1257</v>
+        <v>2693</v>
+      </c>
+      <c r="B418">
+        <v>421</v>
       </c>
       <c r="J418" t="s">
         <v>415</v>
@@ -29161,7 +30416,10 @@
     </row>
     <row r="419" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>1261</v>
+        <v>2693</v>
+      </c>
+      <c r="B419">
+        <v>425</v>
       </c>
       <c r="J419" t="s">
         <v>419</v>
@@ -29181,7 +30439,10 @@
     </row>
     <row r="420" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>1260</v>
+        <v>2693</v>
+      </c>
+      <c r="B420">
+        <v>424</v>
       </c>
       <c r="J420" t="s">
         <v>418</v>
@@ -29204,7 +30465,10 @@
     </row>
     <row r="421" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>1287</v>
+        <v>2693</v>
+      </c>
+      <c r="B421">
+        <v>451</v>
       </c>
       <c r="J421" t="s">
         <v>2389</v>
@@ -29224,7 +30488,10 @@
     </row>
     <row r="422" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>1262</v>
+        <v>2693</v>
+      </c>
+      <c r="B422">
+        <v>426</v>
       </c>
       <c r="J422" t="s">
         <v>420</v>
@@ -29244,7 +30511,10 @@
     </row>
     <row r="423" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>1263</v>
+        <v>2693</v>
+      </c>
+      <c r="B423">
+        <v>427</v>
       </c>
       <c r="J423" t="s">
         <v>421</v>
@@ -29264,7 +30534,10 @@
     </row>
     <row r="424" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>1264</v>
+        <v>2693</v>
+      </c>
+      <c r="B424">
+        <v>428</v>
       </c>
       <c r="J424" t="s">
         <v>422</v>
@@ -29284,7 +30557,10 @@
     </row>
     <row r="425" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>1267</v>
+        <v>2693</v>
+      </c>
+      <c r="B425">
+        <v>431</v>
       </c>
       <c r="J425" t="s">
         <v>425</v>
@@ -29304,7 +30580,10 @@
     </row>
     <row r="426" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>1266</v>
+        <v>2693</v>
+      </c>
+      <c r="B426">
+        <v>430</v>
       </c>
       <c r="J426" t="s">
         <v>424</v>
@@ -29324,7 +30603,10 @@
     </row>
     <row r="427" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>1265</v>
+        <v>2693</v>
+      </c>
+      <c r="B427">
+        <v>429</v>
       </c>
       <c r="J427" t="s">
         <v>423</v>
@@ -29344,7 +30626,10 @@
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>1268</v>
+        <v>2693</v>
+      </c>
+      <c r="B428">
+        <v>432</v>
       </c>
       <c r="J428" t="s">
         <v>426</v>
@@ -29364,7 +30649,10 @@
     </row>
     <row r="429" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>1269</v>
+        <v>2693</v>
+      </c>
+      <c r="B429">
+        <v>433</v>
       </c>
       <c r="J429" t="s">
         <v>427</v>
@@ -29384,7 +30672,10 @@
     </row>
     <row r="430" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>1270</v>
+        <v>2693</v>
+      </c>
+      <c r="B430">
+        <v>434</v>
       </c>
       <c r="J430" t="s">
         <v>428</v>
@@ -29404,7 +30695,10 @@
     </row>
     <row r="431" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>1274</v>
+        <v>2693</v>
+      </c>
+      <c r="B431">
+        <v>438</v>
       </c>
       <c r="J431" t="s">
         <v>432</v>
@@ -29424,7 +30718,10 @@
     </row>
     <row r="432" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>1273</v>
+        <v>2693</v>
+      </c>
+      <c r="B432">
+        <v>437</v>
       </c>
       <c r="J432" t="s">
         <v>431</v>
@@ -29444,7 +30741,10 @@
     </row>
     <row r="433" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>1271</v>
+        <v>2693</v>
+      </c>
+      <c r="B433">
+        <v>435</v>
       </c>
       <c r="J433" t="s">
         <v>429</v>
@@ -29464,7 +30764,10 @@
     </row>
     <row r="434" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>1272</v>
+        <v>2693</v>
+      </c>
+      <c r="B434">
+        <v>436</v>
       </c>
       <c r="J434" t="s">
         <v>430</v>
@@ -29484,7 +30787,10 @@
     </row>
     <row r="435" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>1275</v>
+        <v>2693</v>
+      </c>
+      <c r="B435">
+        <v>439</v>
       </c>
       <c r="J435" t="s">
         <v>433</v>
@@ -29504,7 +30810,10 @@
     </row>
     <row r="436" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>1276</v>
+        <v>2693</v>
+      </c>
+      <c r="B436">
+        <v>440</v>
       </c>
       <c r="J436" t="s">
         <v>434</v>
@@ -29524,7 +30833,10 @@
     </row>
     <row r="437" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>1277</v>
+        <v>2693</v>
+      </c>
+      <c r="B437">
+        <v>441</v>
       </c>
       <c r="J437" t="s">
         <v>435</v>
@@ -29544,7 +30856,10 @@
     </row>
     <row r="438" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>1282</v>
+        <v>2693</v>
+      </c>
+      <c r="B438">
+        <v>446</v>
       </c>
       <c r="J438" t="s">
         <v>440</v>
@@ -29564,7 +30879,10 @@
     </row>
     <row r="439" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>1279</v>
+        <v>2693</v>
+      </c>
+      <c r="B439">
+        <v>443</v>
       </c>
       <c r="J439" t="s">
         <v>437</v>
@@ -29584,7 +30902,10 @@
     </row>
     <row r="440" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>1280</v>
+        <v>2693</v>
+      </c>
+      <c r="B440">
+        <v>444</v>
       </c>
       <c r="J440" t="s">
         <v>438</v>
@@ -29604,7 +30925,10 @@
     </row>
     <row r="441" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>1278</v>
+        <v>2693</v>
+      </c>
+      <c r="B441">
+        <v>442</v>
       </c>
       <c r="J441" t="s">
         <v>436</v>
@@ -29624,7 +30948,10 @@
     </row>
     <row r="442" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>1281</v>
+        <v>2693</v>
+      </c>
+      <c r="B442">
+        <v>445</v>
       </c>
       <c r="J442" t="s">
         <v>439</v>
@@ -29647,7 +30974,10 @@
     </row>
     <row r="443" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>1283</v>
+        <v>2693</v>
+      </c>
+      <c r="B443">
+        <v>447</v>
       </c>
       <c r="J443" t="s">
         <v>441</v>
@@ -29667,7 +30997,10 @@
     </row>
     <row r="444" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>1284</v>
+        <v>2693</v>
+      </c>
+      <c r="B444">
+        <v>448</v>
       </c>
       <c r="J444" t="s">
         <v>442</v>
@@ -29687,7 +31020,10 @@
     </row>
     <row r="445" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>1285</v>
+        <v>2693</v>
+      </c>
+      <c r="B445">
+        <v>449</v>
       </c>
       <c r="J445" t="s">
         <v>443</v>
@@ -29707,7 +31043,10 @@
     </row>
     <row r="446" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>1286</v>
+        <v>2693</v>
+      </c>
+      <c r="B446">
+        <v>450</v>
       </c>
       <c r="J446" t="s">
         <v>444</v>
@@ -29727,7 +31066,10 @@
     </row>
     <row r="447" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>1192</v>
+        <v>2693</v>
+      </c>
+      <c r="B447">
+        <v>356</v>
       </c>
       <c r="J447" t="s">
         <v>354</v>
@@ -29747,7 +31089,10 @@
     </row>
     <row r="448" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>1288</v>
+        <v>2693</v>
+      </c>
+      <c r="B448">
+        <v>452</v>
       </c>
       <c r="J448" t="s">
         <v>446</v>
@@ -29767,7 +31112,10 @@
     </row>
     <row r="449" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>1289</v>
+        <v>2693</v>
+      </c>
+      <c r="B449">
+        <v>453</v>
       </c>
       <c r="J449" t="s">
         <v>447</v>
@@ -29790,7 +31138,10 @@
     </row>
     <row r="450" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>1291</v>
+        <v>2693</v>
+      </c>
+      <c r="B450">
+        <v>455</v>
       </c>
       <c r="J450" t="s">
         <v>449</v>
@@ -29810,7 +31161,10 @@
     </row>
     <row r="451" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>1290</v>
+        <v>2693</v>
+      </c>
+      <c r="B451">
+        <v>454</v>
       </c>
       <c r="J451" t="s">
         <v>448</v>
@@ -29830,7 +31184,10 @@
     </row>
     <row r="452" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>1292</v>
+        <v>2693</v>
+      </c>
+      <c r="B452">
+        <v>456</v>
       </c>
       <c r="J452" t="s">
         <v>450</v>
@@ -29853,7 +31210,10 @@
     </row>
     <row r="453" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>1294</v>
+        <v>2693</v>
+      </c>
+      <c r="B453">
+        <v>458</v>
       </c>
       <c r="J453" t="s">
         <v>452</v>
@@ -29870,7 +31230,10 @@
     </row>
     <row r="454" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>1293</v>
+        <v>2693</v>
+      </c>
+      <c r="B454">
+        <v>457</v>
       </c>
       <c r="J454" t="s">
         <v>451</v>
@@ -29890,7 +31253,10 @@
     </row>
     <row r="455" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>1295</v>
+        <v>2693</v>
+      </c>
+      <c r="B455">
+        <v>459</v>
       </c>
       <c r="J455" t="s">
         <v>453</v>
@@ -29910,7 +31276,10 @@
     </row>
     <row r="456" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>1296</v>
+        <v>2693</v>
+      </c>
+      <c r="B456">
+        <v>460</v>
       </c>
       <c r="J456" t="s">
         <v>454</v>
@@ -29930,7 +31299,10 @@
     </row>
     <row r="457" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>1297</v>
+        <v>2693</v>
+      </c>
+      <c r="B457">
+        <v>461</v>
       </c>
       <c r="J457" t="s">
         <v>455</v>
@@ -29950,7 +31322,10 @@
     </row>
     <row r="458" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>1298</v>
+        <v>2693</v>
+      </c>
+      <c r="B458">
+        <v>462</v>
       </c>
       <c r="J458" t="s">
         <v>456</v>
@@ -29970,7 +31345,10 @@
     </row>
     <row r="459" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>1308</v>
+        <v>2693</v>
+      </c>
+      <c r="B459">
+        <v>472</v>
       </c>
       <c r="J459" t="s">
         <v>466</v>
@@ -29993,7 +31371,10 @@
     </row>
     <row r="460" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>1309</v>
+        <v>2693</v>
+      </c>
+      <c r="B460">
+        <v>473</v>
       </c>
       <c r="J460" t="s">
         <v>467</v>
@@ -30013,7 +31394,10 @@
     </row>
     <row r="461" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>1299</v>
+        <v>2693</v>
+      </c>
+      <c r="B461">
+        <v>463</v>
       </c>
       <c r="J461" t="s">
         <v>457</v>
@@ -30036,7 +31420,10 @@
     </row>
     <row r="462" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>1301</v>
+        <v>2693</v>
+      </c>
+      <c r="B462">
+        <v>465</v>
       </c>
       <c r="J462" t="s">
         <v>459</v>
@@ -30059,7 +31446,10 @@
     </row>
     <row r="463" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>1300</v>
+        <v>2693</v>
+      </c>
+      <c r="B463">
+        <v>464</v>
       </c>
       <c r="J463" t="s">
         <v>458</v>
@@ -30082,7 +31472,10 @@
     </row>
     <row r="464" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>1302</v>
+        <v>2693</v>
+      </c>
+      <c r="B464">
+        <v>466</v>
       </c>
       <c r="J464" t="s">
         <v>460</v>
@@ -30105,7 +31498,10 @@
     </row>
     <row r="465" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>1303</v>
+        <v>2693</v>
+      </c>
+      <c r="B465">
+        <v>467</v>
       </c>
       <c r="J465" t="s">
         <v>461</v>
@@ -30128,7 +31524,10 @@
     </row>
     <row r="466" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>1304</v>
+        <v>2693</v>
+      </c>
+      <c r="B466">
+        <v>468</v>
       </c>
       <c r="J466" t="s">
         <v>462</v>
@@ -30148,7 +31547,10 @@
     </row>
     <row r="467" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>1305</v>
+        <v>2693</v>
+      </c>
+      <c r="B467">
+        <v>469</v>
       </c>
       <c r="J467" t="s">
         <v>463</v>
@@ -30168,7 +31570,10 @@
     </row>
     <row r="468" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>1306</v>
+        <v>2693</v>
+      </c>
+      <c r="B468">
+        <v>470</v>
       </c>
       <c r="J468" t="s">
         <v>464</v>
@@ -30191,7 +31596,10 @@
     </row>
     <row r="469" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>1307</v>
+        <v>2693</v>
+      </c>
+      <c r="B469">
+        <v>471</v>
       </c>
       <c r="J469" t="s">
         <v>465</v>
@@ -30214,7 +31622,10 @@
     </row>
     <row r="470" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>1310</v>
+        <v>2693</v>
+      </c>
+      <c r="B470">
+        <v>474</v>
       </c>
       <c r="J470" t="s">
         <v>468</v>
@@ -30234,7 +31645,10 @@
     </row>
     <row r="471" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>1311</v>
+        <v>2693</v>
+      </c>
+      <c r="B471">
+        <v>475</v>
       </c>
       <c r="J471" t="s">
         <v>469</v>
@@ -30257,7 +31671,10 @@
     </row>
     <row r="472" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>1312</v>
+        <v>2693</v>
+      </c>
+      <c r="B472">
+        <v>476</v>
       </c>
       <c r="J472" t="s">
         <v>2485</v>
@@ -30280,7 +31697,10 @@
     </row>
     <row r="473" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>1313</v>
+        <v>2693</v>
+      </c>
+      <c r="B473">
+        <v>477</v>
       </c>
       <c r="J473" t="s">
         <v>2489</v>
@@ -30303,7 +31723,10 @@
     </row>
     <row r="474" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>1314</v>
+        <v>2693</v>
+      </c>
+      <c r="B474">
+        <v>478</v>
       </c>
       <c r="J474" t="s">
         <v>2491</v>
@@ -30326,7 +31749,10 @@
     </row>
     <row r="475" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>1328</v>
+        <v>2693</v>
+      </c>
+      <c r="B475">
+        <v>492</v>
       </c>
       <c r="J475" t="s">
         <v>486</v>
@@ -30346,7 +31772,10 @@
     </row>
     <row r="476" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>1329</v>
+        <v>2693</v>
+      </c>
+      <c r="B476">
+        <v>493</v>
       </c>
       <c r="J476" t="s">
         <v>487</v>
@@ -30363,7 +31792,10 @@
     </row>
     <row r="477" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>1315</v>
+        <v>2693</v>
+      </c>
+      <c r="B477">
+        <v>479</v>
       </c>
       <c r="J477" t="s">
         <v>2495</v>
@@ -30389,7 +31821,10 @@
     </row>
     <row r="478" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>1317</v>
+        <v>2693</v>
+      </c>
+      <c r="B478">
+        <v>481</v>
       </c>
       <c r="J478" t="s">
         <v>475</v>
@@ -30409,7 +31844,10 @@
     </row>
     <row r="479" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>1316</v>
+        <v>2693</v>
+      </c>
+      <c r="B479">
+        <v>480</v>
       </c>
       <c r="J479" t="s">
         <v>474</v>
@@ -30429,7 +31867,10 @@
     </row>
     <row r="480" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>1319</v>
+        <v>2693</v>
+      </c>
+      <c r="B480">
+        <v>483</v>
       </c>
       <c r="J480" t="s">
         <v>477</v>
@@ -30449,7 +31890,10 @@
     </row>
     <row r="481" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>1318</v>
+        <v>2693</v>
+      </c>
+      <c r="B481">
+        <v>482</v>
       </c>
       <c r="J481" t="s">
         <v>476</v>
@@ -30469,7 +31913,10 @@
     </row>
     <row r="482" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>1320</v>
+        <v>2693</v>
+      </c>
+      <c r="B482">
+        <v>484</v>
       </c>
       <c r="J482" t="s">
         <v>478</v>
@@ -30489,7 +31936,10 @@
     </row>
     <row r="483" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>1325</v>
+        <v>2693</v>
+      </c>
+      <c r="B483">
+        <v>489</v>
       </c>
       <c r="J483" t="s">
         <v>483</v>
@@ -30509,7 +31959,10 @@
     </row>
     <row r="484" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>1327</v>
+        <v>2693</v>
+      </c>
+      <c r="B484">
+        <v>491</v>
       </c>
       <c r="J484" t="s">
         <v>485</v>
@@ -30529,7 +31982,10 @@
     </row>
     <row r="485" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>1324</v>
+        <v>2693</v>
+      </c>
+      <c r="B485">
+        <v>488</v>
       </c>
       <c r="J485" t="s">
         <v>482</v>
@@ -30546,7 +32002,10 @@
     </row>
     <row r="486" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>1323</v>
+        <v>2693</v>
+      </c>
+      <c r="B486">
+        <v>487</v>
       </c>
       <c r="J486" t="s">
         <v>481</v>
@@ -30566,7 +32025,10 @@
     </row>
     <row r="487" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>1326</v>
+        <v>2693</v>
+      </c>
+      <c r="B487">
+        <v>490</v>
       </c>
       <c r="J487" t="s">
         <v>484</v>
@@ -30586,7 +32048,10 @@
     </row>
     <row r="488" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>1321</v>
+        <v>2693</v>
+      </c>
+      <c r="B488">
+        <v>485</v>
       </c>
       <c r="J488" t="s">
         <v>479</v>
@@ -30606,7 +32071,10 @@
     </row>
     <row r="489" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>1322</v>
+        <v>2693</v>
+      </c>
+      <c r="B489">
+        <v>486</v>
       </c>
       <c r="J489" t="s">
         <v>480</v>
@@ -30629,7 +32097,10 @@
     </row>
     <row r="490" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>1330</v>
+        <v>2693</v>
+      </c>
+      <c r="B490">
+        <v>494</v>
       </c>
       <c r="J490" t="s">
         <v>488</v>
@@ -30652,7 +32123,10 @@
     </row>
     <row r="491" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>1332</v>
+        <v>2693</v>
+      </c>
+      <c r="B491">
+        <v>496</v>
       </c>
       <c r="J491" t="s">
         <v>490</v>
@@ -30672,7 +32146,10 @@
     </row>
     <row r="492" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>1331</v>
+        <v>2693</v>
+      </c>
+      <c r="B492">
+        <v>495</v>
       </c>
       <c r="J492" t="s">
         <v>489</v>
@@ -30692,7 +32169,10 @@
     </row>
     <row r="493" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>1335</v>
+        <v>2693</v>
+      </c>
+      <c r="B493">
+        <v>499</v>
       </c>
       <c r="J493" t="s">
         <v>493</v>
@@ -30712,7 +32192,10 @@
     </row>
     <row r="494" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>1333</v>
+        <v>2693</v>
+      </c>
+      <c r="B494">
+        <v>497</v>
       </c>
       <c r="J494" t="s">
         <v>491</v>
@@ -30732,7 +32215,10 @@
     </row>
     <row r="495" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>1336</v>
+        <v>2693</v>
+      </c>
+      <c r="B495">
+        <v>500</v>
       </c>
       <c r="J495" t="s">
         <v>494</v>
@@ -30752,7 +32238,10 @@
     </row>
     <row r="496" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>1334</v>
+        <v>2693</v>
+      </c>
+      <c r="B496">
+        <v>498</v>
       </c>
       <c r="J496" t="s">
         <v>492</v>
@@ -30772,7 +32261,10 @@
     </row>
     <row r="497" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>1338</v>
+        <v>2693</v>
+      </c>
+      <c r="B497">
+        <v>502</v>
       </c>
       <c r="J497" t="s">
         <v>496</v>
@@ -30792,7 +32284,10 @@
     </row>
     <row r="498" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>1337</v>
+        <v>2693</v>
+      </c>
+      <c r="B498">
+        <v>501</v>
       </c>
       <c r="J498" t="s">
         <v>495</v>
@@ -30812,7 +32307,10 @@
     </row>
     <row r="499" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>1339</v>
+        <v>2693</v>
+      </c>
+      <c r="B499">
+        <v>503</v>
       </c>
       <c r="J499" t="s">
         <v>497</v>
@@ -30832,7 +32330,10 @@
     </row>
     <row r="500" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>1065</v>
+        <v>2693</v>
+      </c>
+      <c r="B500">
+        <v>229</v>
       </c>
       <c r="J500" t="s">
         <v>226</v>
@@ -30855,7 +32356,10 @@
     </row>
     <row r="501" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>1340</v>
+        <v>2693</v>
+      </c>
+      <c r="B501">
+        <v>504</v>
       </c>
       <c r="J501" t="s">
         <v>498</v>
@@ -30875,7 +32379,10 @@
     </row>
     <row r="502" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>1341</v>
+        <v>2693</v>
+      </c>
+      <c r="B502">
+        <v>505</v>
       </c>
       <c r="J502" t="s">
         <v>499</v>
@@ -30895,7 +32402,10 @@
     </row>
     <row r="503" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>1204</v>
+        <v>2693</v>
+      </c>
+      <c r="B503">
+        <v>368</v>
       </c>
       <c r="J503" t="s">
         <v>365</v>
@@ -30918,7 +32428,10 @@
     </row>
     <row r="504" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>1350</v>
+        <v>2693</v>
+      </c>
+      <c r="B504">
+        <v>514</v>
       </c>
       <c r="J504" t="s">
         <v>508</v>
@@ -30941,7 +32454,10 @@
     </row>
     <row r="505" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>1351</v>
+        <v>2693</v>
+      </c>
+      <c r="B505">
+        <v>515</v>
       </c>
       <c r="J505" t="s">
         <v>509</v>
@@ -30961,7 +32477,10 @@
     </row>
     <row r="506" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>1352</v>
+        <v>2693</v>
+      </c>
+      <c r="B506">
+        <v>516</v>
       </c>
       <c r="J506" t="s">
         <v>510</v>
@@ -30981,7 +32500,10 @@
     </row>
     <row r="507" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>1342</v>
+        <v>2693</v>
+      </c>
+      <c r="B507">
+        <v>506</v>
       </c>
       <c r="J507" t="s">
         <v>2550</v>
@@ -31001,7 +32523,10 @@
     </row>
     <row r="508" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>1343</v>
+        <v>2693</v>
+      </c>
+      <c r="B508">
+        <v>507</v>
       </c>
       <c r="J508" t="s">
         <v>501</v>
@@ -31021,7 +32546,10 @@
     </row>
     <row r="509" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>1344</v>
+        <v>2693</v>
+      </c>
+      <c r="B509">
+        <v>508</v>
       </c>
       <c r="J509" t="s">
         <v>502</v>
@@ -31041,7 +32569,10 @@
     </row>
     <row r="510" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>1345</v>
+        <v>2693</v>
+      </c>
+      <c r="B510">
+        <v>509</v>
       </c>
       <c r="J510" t="s">
         <v>503</v>
@@ -31061,7 +32592,10 @@
     </row>
     <row r="511" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>1346</v>
+        <v>2693</v>
+      </c>
+      <c r="B511">
+        <v>510</v>
       </c>
       <c r="J511" t="s">
         <v>504</v>
@@ -31078,7 +32612,10 @@
     </row>
     <row r="512" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>1347</v>
+        <v>2693</v>
+      </c>
+      <c r="B512">
+        <v>511</v>
       </c>
       <c r="J512" t="s">
         <v>505</v>
@@ -31098,7 +32635,10 @@
     </row>
     <row r="513" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>1348</v>
+        <v>2693</v>
+      </c>
+      <c r="B513">
+        <v>512</v>
       </c>
       <c r="J513" t="s">
         <v>506</v>
@@ -31115,7 +32655,10 @@
     </row>
     <row r="514" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>1349</v>
+        <v>2693</v>
+      </c>
+      <c r="B514">
+        <v>513</v>
       </c>
       <c r="J514" t="s">
         <v>2563</v>
@@ -31135,7 +32678,10 @@
     </row>
     <row r="515" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>1353</v>
+        <v>2693</v>
+      </c>
+      <c r="B515">
+        <v>517</v>
       </c>
       <c r="J515" t="s">
         <v>511</v>
@@ -31158,7 +32704,10 @@
     </row>
     <row r="516" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>1354</v>
+        <v>2693</v>
+      </c>
+      <c r="B516">
+        <v>518</v>
       </c>
       <c r="J516" t="s">
         <v>512</v>
@@ -31178,7 +32727,10 @@
     </row>
     <row r="517" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>1355</v>
+        <v>2693</v>
+      </c>
+      <c r="B517">
+        <v>519</v>
       </c>
       <c r="J517" t="s">
         <v>513</v>
@@ -31198,7 +32750,10 @@
     </row>
     <row r="518" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>1356</v>
+        <v>2693</v>
+      </c>
+      <c r="B518">
+        <v>520</v>
       </c>
       <c r="J518" t="s">
         <v>513</v>
@@ -31218,7 +32773,10 @@
     </row>
     <row r="519" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>1357</v>
+        <v>2693</v>
+      </c>
+      <c r="B519">
+        <v>521</v>
       </c>
       <c r="J519" t="s">
         <v>514</v>
@@ -31238,7 +32796,10 @@
     </row>
     <row r="520" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>1358</v>
+        <v>2693</v>
+      </c>
+      <c r="B520">
+        <v>522</v>
       </c>
       <c r="J520" t="s">
         <v>515</v>
@@ -31258,7 +32819,10 @@
     </row>
     <row r="521" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>1359</v>
+        <v>2693</v>
+      </c>
+      <c r="B521">
+        <v>523</v>
       </c>
       <c r="J521" t="s">
         <v>516</v>
@@ -31278,7 +32842,10 @@
     </row>
     <row r="522" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>1360</v>
+        <v>2693</v>
+      </c>
+      <c r="B522">
+        <v>524</v>
       </c>
       <c r="J522" t="s">
         <v>2579</v>
@@ -31301,7 +32868,10 @@
     </row>
     <row r="523" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>1367</v>
+        <v>2693</v>
+      </c>
+      <c r="B523">
+        <v>531</v>
       </c>
       <c r="J523" t="s">
         <v>523</v>
@@ -31321,7 +32891,10 @@
     </row>
     <row r="524" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>1362</v>
+        <v>2693</v>
+      </c>
+      <c r="B524">
+        <v>526</v>
       </c>
       <c r="J524" t="s">
         <v>519</v>
@@ -31341,7 +32914,10 @@
     </row>
     <row r="525" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>1366</v>
+        <v>2693</v>
+      </c>
+      <c r="B525">
+        <v>530</v>
       </c>
       <c r="J525" t="s">
         <v>522</v>
@@ -31361,7 +32937,10 @@
     </row>
     <row r="526" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>1361</v>
+        <v>2693</v>
+      </c>
+      <c r="B526">
+        <v>525</v>
       </c>
       <c r="J526" t="s">
         <v>518</v>
@@ -31381,7 +32960,10 @@
     </row>
     <row r="527" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>1364</v>
+        <v>2693</v>
+      </c>
+      <c r="B527">
+        <v>528</v>
       </c>
       <c r="J527" t="s">
         <v>521</v>
@@ -31404,7 +32986,10 @@
     </row>
     <row r="528" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>1365</v>
+        <v>2693</v>
+      </c>
+      <c r="B528">
+        <v>529</v>
       </c>
       <c r="J528" t="s">
         <v>521</v>
@@ -31427,7 +33012,10 @@
     </row>
     <row r="529" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>1363</v>
+        <v>2693</v>
+      </c>
+      <c r="B529">
+        <v>527</v>
       </c>
       <c r="J529" t="s">
         <v>520</v>
@@ -31447,7 +33035,10 @@
     </row>
     <row r="530" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>954</v>
+        <v>2693</v>
+      </c>
+      <c r="B530">
+        <v>118</v>
       </c>
       <c r="J530" t="s">
         <v>117</v>
@@ -31470,7 +33061,10 @@
     </row>
     <row r="531" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>936</v>
+        <v>2693</v>
+      </c>
+      <c r="B531">
+        <v>100</v>
       </c>
       <c r="J531" t="s">
         <v>99</v>
@@ -31493,7 +33087,10 @@
     </row>
     <row r="532" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>1368</v>
+        <v>2693</v>
+      </c>
+      <c r="B532">
+        <v>532</v>
       </c>
       <c r="J532" t="s">
         <v>2593</v>
@@ -31516,7 +33113,10 @@
     </row>
     <row r="533" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>1369</v>
+        <v>2693</v>
+      </c>
+      <c r="B533">
+        <v>533</v>
       </c>
       <c r="J533" t="s">
         <v>525</v>
@@ -31536,7 +33136,10 @@
     </row>
     <row r="534" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>1371</v>
+        <v>2693</v>
+      </c>
+      <c r="B534">
+        <v>535</v>
       </c>
       <c r="J534" t="s">
         <v>527</v>
@@ -31556,7 +33159,10 @@
     </row>
     <row r="535" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>1370</v>
+        <v>2693</v>
+      </c>
+      <c r="B535">
+        <v>534</v>
       </c>
       <c r="J535" t="s">
         <v>526</v>
@@ -31576,7 +33182,10 @@
     </row>
     <row r="536" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>1382</v>
+        <v>2693</v>
+      </c>
+      <c r="B536">
+        <v>546</v>
       </c>
       <c r="J536" t="s">
         <v>537</v>
@@ -31596,7 +33205,10 @@
     </row>
     <row r="537" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>1373</v>
+        <v>2693</v>
+      </c>
+      <c r="B537">
+        <v>537</v>
       </c>
       <c r="J537" t="s">
         <v>529</v>
@@ -31619,7 +33231,10 @@
     </row>
     <row r="538" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>1375</v>
+        <v>2693</v>
+      </c>
+      <c r="B538">
+        <v>539</v>
       </c>
       <c r="J538" t="s">
         <v>531</v>
@@ -31639,7 +33254,10 @@
     </row>
     <row r="539" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>1376</v>
+        <v>2693</v>
+      </c>
+      <c r="B539">
+        <v>540</v>
       </c>
       <c r="J539" t="s">
         <v>532</v>
@@ -31659,7 +33277,10 @@
     </row>
     <row r="540" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>1383</v>
+        <v>2693</v>
+      </c>
+      <c r="B540">
+        <v>547</v>
       </c>
       <c r="J540" t="s">
         <v>538</v>
@@ -31682,7 +33303,10 @@
     </row>
     <row r="541" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>1372</v>
+        <v>2693</v>
+      </c>
+      <c r="B541">
+        <v>536</v>
       </c>
       <c r="J541" t="s">
         <v>2607</v>
@@ -31708,7 +33332,10 @@
     </row>
     <row r="542" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>1374</v>
+        <v>2693</v>
+      </c>
+      <c r="B542">
+        <v>538</v>
       </c>
       <c r="J542" t="s">
         <v>530</v>
@@ -31725,7 +33352,10 @@
     </row>
     <row r="543" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>1379</v>
+        <v>2693</v>
+      </c>
+      <c r="B543">
+        <v>543</v>
       </c>
       <c r="J543" t="s">
         <v>535</v>
@@ -31748,7 +33378,10 @@
     </row>
     <row r="544" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>1377</v>
+        <v>2693</v>
+      </c>
+      <c r="B544">
+        <v>541</v>
       </c>
       <c r="J544" t="s">
         <v>533</v>
@@ -31771,7 +33404,10 @@
     </row>
     <row r="545" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>1380</v>
+        <v>2693</v>
+      </c>
+      <c r="B545">
+        <v>544</v>
       </c>
       <c r="J545" t="s">
         <v>536</v>
@@ -31791,7 +33427,10 @@
     </row>
     <row r="546" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>1381</v>
+        <v>2693</v>
+      </c>
+      <c r="B546">
+        <v>545</v>
       </c>
       <c r="J546" t="s">
         <v>536</v>
@@ -31811,7 +33450,10 @@
     </row>
     <row r="547" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>1378</v>
+        <v>2693</v>
+      </c>
+      <c r="B547">
+        <v>542</v>
       </c>
       <c r="J547" t="s">
         <v>534</v>
@@ -31834,7 +33476,10 @@
     </row>
     <row r="548" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>1384</v>
+        <v>2693</v>
+      </c>
+      <c r="B548">
+        <v>548</v>
       </c>
       <c r="J548" t="s">
         <v>539</v>
@@ -31851,7 +33496,10 @@
     </row>
     <row r="549" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>1387</v>
+        <v>2693</v>
+      </c>
+      <c r="B549">
+        <v>551</v>
       </c>
       <c r="J549" t="s">
         <v>542</v>
@@ -31874,7 +33522,10 @@
     </row>
     <row r="550" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>1388</v>
+        <v>2693</v>
+      </c>
+      <c r="B550">
+        <v>552</v>
       </c>
       <c r="J550" t="s">
         <v>543</v>
@@ -31894,7 +33545,10 @@
     </row>
     <row r="551" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>1386</v>
+        <v>2693</v>
+      </c>
+      <c r="B551">
+        <v>550</v>
       </c>
       <c r="J551" t="s">
         <v>541</v>
@@ -31911,7 +33565,10 @@
     </row>
     <row r="552" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>1385</v>
+        <v>2693</v>
+      </c>
+      <c r="B552">
+        <v>549</v>
       </c>
       <c r="J552" t="s">
         <v>540</v>
@@ -31931,7 +33588,10 @@
     </row>
     <row r="553" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>1390</v>
+        <v>2693</v>
+      </c>
+      <c r="B553">
+        <v>554</v>
       </c>
       <c r="J553" t="s">
         <v>545</v>
@@ -31951,7 +33611,10 @@
     </row>
     <row r="554" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>1389</v>
+        <v>2693</v>
+      </c>
+      <c r="B554">
+        <v>553</v>
       </c>
       <c r="J554" t="s">
         <v>544</v>
@@ -31971,7 +33634,10 @@
     </row>
     <row r="555" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>1395</v>
+        <v>2693</v>
+      </c>
+      <c r="B555">
+        <v>559</v>
       </c>
       <c r="J555" t="s">
         <v>550</v>
@@ -31991,7 +33657,10 @@
     </row>
     <row r="556" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>1394</v>
+        <v>2693</v>
+      </c>
+      <c r="B556">
+        <v>558</v>
       </c>
       <c r="J556" t="s">
         <v>549</v>
@@ -32011,7 +33680,10 @@
     </row>
     <row r="557" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>1392</v>
+        <v>2693</v>
+      </c>
+      <c r="B557">
+        <v>556</v>
       </c>
       <c r="J557" t="s">
         <v>547</v>
@@ -32034,7 +33706,10 @@
     </row>
     <row r="558" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>1397</v>
+        <v>2693</v>
+      </c>
+      <c r="B558">
+        <v>561</v>
       </c>
       <c r="J558" t="s">
         <v>552</v>
@@ -32057,7 +33732,10 @@
     </row>
     <row r="559" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>1396</v>
+        <v>2693</v>
+      </c>
+      <c r="B559">
+        <v>560</v>
       </c>
       <c r="J559" t="s">
         <v>551</v>
@@ -32077,7 +33755,10 @@
     </row>
     <row r="560" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>1393</v>
+        <v>2693</v>
+      </c>
+      <c r="B560">
+        <v>557</v>
       </c>
       <c r="J560" t="s">
         <v>548</v>
@@ -32097,7 +33778,10 @@
     </row>
     <row r="561" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>1391</v>
+        <v>2693</v>
+      </c>
+      <c r="B561">
+        <v>555</v>
       </c>
       <c r="J561" t="s">
         <v>546</v>
@@ -32120,7 +33804,10 @@
     </row>
     <row r="562" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>1398</v>
+        <v>2693</v>
+      </c>
+      <c r="B562">
+        <v>562</v>
       </c>
       <c r="J562" t="s">
         <v>553</v>
@@ -32143,7 +33830,10 @@
     </row>
     <row r="563" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>1399</v>
+        <v>2693</v>
+      </c>
+      <c r="B563">
+        <v>563</v>
       </c>
       <c r="J563" t="s">
         <v>554</v>
@@ -32163,7 +33853,10 @@
     </row>
     <row r="564" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>1400</v>
+        <v>2693</v>
+      </c>
+      <c r="B564">
+        <v>564</v>
       </c>
       <c r="J564" t="s">
         <v>555</v>
@@ -32186,7 +33879,10 @@
     </row>
     <row r="565" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>1401</v>
+        <v>2693</v>
+      </c>
+      <c r="B565">
+        <v>565</v>
       </c>
       <c r="J565" t="s">
         <v>556</v>
@@ -32203,7 +33899,10 @@
     </row>
     <row r="566" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>1405</v>
+        <v>2693</v>
+      </c>
+      <c r="B566">
+        <v>569</v>
       </c>
       <c r="J566" t="s">
         <v>560</v>
@@ -32223,7 +33922,10 @@
     </row>
     <row r="567" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>1402</v>
+        <v>2693</v>
+      </c>
+      <c r="B567">
+        <v>566</v>
       </c>
       <c r="J567" t="s">
         <v>2643</v>
@@ -32246,7 +33948,10 @@
     </row>
     <row r="568" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>1403</v>
+        <v>2693</v>
+      </c>
+      <c r="B568">
+        <v>567</v>
       </c>
       <c r="J568" t="s">
         <v>558</v>
@@ -32266,7 +33971,10 @@
     </row>
     <row r="569" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>1404</v>
+        <v>2693</v>
+      </c>
+      <c r="B569">
+        <v>568</v>
       </c>
       <c r="J569" t="s">
         <v>559</v>
@@ -32286,7 +33994,10 @@
     </row>
     <row r="570" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>1406</v>
+        <v>2693</v>
+      </c>
+      <c r="B570">
+        <v>570</v>
       </c>
       <c r="J570" t="s">
         <v>561</v>
@@ -32306,7 +34017,10 @@
     </row>
     <row r="571" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>1407</v>
+        <v>2693</v>
+      </c>
+      <c r="B571">
+        <v>571</v>
       </c>
       <c r="J571" t="s">
         <v>562</v>
@@ -32326,7 +34040,10 @@
     </row>
     <row r="572" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>1408</v>
+        <v>2693</v>
+      </c>
+      <c r="B572">
+        <v>572</v>
       </c>
       <c r="J572" t="s">
         <v>563</v>
@@ -32346,7 +34063,10 @@
     </row>
     <row r="573" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>1409</v>
+        <v>2693</v>
+      </c>
+      <c r="B573">
+        <v>573</v>
       </c>
       <c r="J573" t="s">
         <v>564</v>
@@ -32366,7 +34086,10 @@
     </row>
     <row r="574" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>1411</v>
+        <v>2693</v>
+      </c>
+      <c r="B574">
+        <v>575</v>
       </c>
       <c r="J574" t="s">
         <v>566</v>
@@ -32389,7 +34112,10 @@
     </row>
     <row r="575" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>1410</v>
+        <v>2693</v>
+      </c>
+      <c r="B575">
+        <v>574</v>
       </c>
       <c r="J575" t="s">
         <v>2655</v>
@@ -32412,7 +34138,10 @@
     </row>
     <row r="576" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1412</v>
+        <v>2693</v>
+      </c>
+      <c r="B576">
+        <v>576</v>
       </c>
       <c r="J576" t="s">
         <v>567</v>
@@ -32432,7 +34161,10 @@
     </row>
     <row r="577" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>1413</v>
+        <v>2693</v>
+      </c>
+      <c r="B577">
+        <v>577</v>
       </c>
       <c r="J577" t="s">
         <v>568</v>
@@ -32455,7 +34187,10 @@
     </row>
     <row r="578" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>1415</v>
+        <v>2693</v>
+      </c>
+      <c r="B578">
+        <v>579</v>
       </c>
       <c r="J578" t="s">
         <v>570</v>
@@ -32475,7 +34210,10 @@
     </row>
     <row r="579" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>1414</v>
+        <v>2693</v>
+      </c>
+      <c r="B579">
+        <v>578</v>
       </c>
       <c r="J579" t="s">
         <v>569</v>
@@ -32495,7 +34233,10 @@
     </row>
     <row r="580" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>1416</v>
+        <v>2693</v>
+      </c>
+      <c r="B580">
+        <v>580</v>
       </c>
       <c r="J580" t="s">
         <v>571</v>
@@ -32515,7 +34256,10 @@
     </row>
     <row r="581" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>1417</v>
+        <v>2693</v>
+      </c>
+      <c r="B581">
+        <v>581</v>
       </c>
       <c r="J581" t="s">
         <v>572</v>
@@ -32532,7 +34276,10 @@
     </row>
     <row r="582" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>1418</v>
+        <v>2693</v>
+      </c>
+      <c r="B582">
+        <v>582</v>
       </c>
       <c r="J582" t="s">
         <v>573</v>
@@ -32549,7 +34296,10 @@
     </row>
     <row r="583" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>1420</v>
+        <v>2693</v>
+      </c>
+      <c r="B583">
+        <v>584</v>
       </c>
       <c r="J583" t="s">
         <v>575</v>
@@ -32569,7 +34319,10 @@
     </row>
     <row r="584" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>1421</v>
+        <v>2693</v>
+      </c>
+      <c r="B584">
+        <v>585</v>
       </c>
       <c r="J584" t="s">
         <v>576</v>
@@ -32589,7 +34342,10 @@
     </row>
     <row r="585" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>1419</v>
+        <v>2693</v>
+      </c>
+      <c r="B585">
+        <v>583</v>
       </c>
       <c r="J585" t="s">
         <v>574</v>
@@ -32609,7 +34365,10 @@
     </row>
     <row r="586" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>1422</v>
+        <v>2693</v>
+      </c>
+      <c r="B586">
+        <v>586</v>
       </c>
       <c r="J586" t="s">
         <v>577</v>
@@ -32629,7 +34388,10 @@
     </row>
     <row r="587" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>1423</v>
+        <v>2693</v>
+      </c>
+      <c r="B587">
+        <v>587</v>
       </c>
       <c r="J587" t="s">
         <v>578</v>
@@ -32649,7 +34411,10 @@
     </row>
     <row r="588" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>1424</v>
+        <v>2693</v>
+      </c>
+      <c r="B588">
+        <v>588</v>
       </c>
       <c r="J588" t="s">
         <v>579</v>
@@ -32669,7 +34434,10 @@
     </row>
     <row r="589" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>1425</v>
+        <v>2693</v>
+      </c>
+      <c r="B589">
+        <v>589</v>
       </c>
       <c r="J589" t="s">
         <v>580</v>
@@ -32692,7 +34460,10 @@
     </row>
     <row r="590" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>1426</v>
+        <v>2693</v>
+      </c>
+      <c r="B590">
+        <v>590</v>
       </c>
       <c r="J590" t="s">
         <v>2680</v>
@@ -32718,7 +34489,10 @@
     </row>
     <row r="591" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>1427</v>
+        <v>2693</v>
+      </c>
+      <c r="B591">
+        <v>591</v>
       </c>
       <c r="J591" t="s">
         <v>582</v>
@@ -32738,7 +34512,10 @@
     </row>
     <row r="592" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>1430</v>
+        <v>2693</v>
+      </c>
+      <c r="B592">
+        <v>594</v>
       </c>
       <c r="J592" t="s">
         <v>585</v>
@@ -32761,7 +34538,10 @@
     </row>
     <row r="593" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>1428</v>
+        <v>2693</v>
+      </c>
+      <c r="B593">
+        <v>592</v>
       </c>
       <c r="J593" t="s">
         <v>583</v>
@@ -32784,7 +34564,10 @@
     </row>
     <row r="594" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>1429</v>
+        <v>2693</v>
+      </c>
+      <c r="B594">
+        <v>593</v>
       </c>
       <c r="J594" t="s">
         <v>584</v>
@@ -32804,7 +34587,10 @@
     </row>
     <row r="595" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1431</v>
+        <v>2693</v>
+      </c>
+      <c r="B595">
+        <v>595</v>
       </c>
       <c r="J595" t="s">
         <v>586</v>
@@ -32827,7 +34613,10 @@
     </row>
     <row r="596" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>1205</v>
+        <v>2693</v>
+      </c>
+      <c r="B596">
+        <v>369</v>
       </c>
       <c r="J596" t="s">
         <v>366</v>

--- a/input/BYU Siphonaptera Synonyms.xlsx
+++ b/input/BYU Siphonaptera Synonyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/ixodes-tpt/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7BB29FA7-FBCA-45AA-A522-79CEC9E2D67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B77D6094-B3B4-463F-9B94-66CE1C7A903A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7BB29FA7-FBCA-45AA-A522-79CEC9E2D67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D48CA38F-C007-4D41-8F9C-6CB97ECEBDB6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{7D02E71C-77E1-404A-98BF-17EC0448B361}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6833" uniqueCount="2695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6834" uniqueCount="2696">
   <si>
     <t>scientific name</t>
   </si>
@@ -8122,6 +8122,9 @@
   </si>
   <si>
     <t>TPTdataset</t>
+  </si>
+  <si>
+    <t>canonicalName</t>
   </si>
 </sst>
 </file>
@@ -20290,9 +20293,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A283B32-D5E1-44BD-968F-182027A7A124}">
-  <dimension ref="A1:AK596"/>
+  <dimension ref="A1:AL596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20311,7 +20316,7 @@
     <col min="37" max="37" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2694</v>
       </c>
@@ -20423,8 +20428,11 @@
       <c r="AK1" t="s">
         <v>2692</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL1" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2693</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2693</v>
       </c>
@@ -20470,7 +20478,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2693</v>
       </c>
@@ -20493,7 +20501,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2693</v>
       </c>
@@ -20519,7 +20527,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2693</v>
       </c>
@@ -20542,7 +20550,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2693</v>
       </c>
@@ -20565,7 +20573,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2693</v>
       </c>
@@ -20591,7 +20599,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2693</v>
       </c>
@@ -20617,7 +20625,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2693</v>
       </c>
@@ -20640,7 +20648,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2693</v>
       </c>
@@ -20663,7 +20671,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2693</v>
       </c>
@@ -20689,7 +20697,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2693</v>
       </c>
@@ -20721,7 +20729,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2693</v>
       </c>
@@ -20753,7 +20761,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2693</v>
       </c>
@@ -20779,7 +20787,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2693</v>
       </c>
